--- a/data/hotels_by_city/Houston/Houston_shard_148.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_148.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223143-Reviews-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Courtyard-Houston-North.h788820.Hotel-Information?chkin=7%2F9%2F2018&amp;chkout=7%2F10%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530385274418&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=d0e8951e-6f46-40ff-9671-071049534841&amp;mctc=9&amp;exp_dp=91.2&amp;exp_ts=1530385274982&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1333 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r576975893-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223143</t>
+  </si>
+  <si>
+    <t>576975893</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Women's Conference!!!</t>
+  </si>
+  <si>
+    <t>We were in town for a women's conference. I had made reservations at another Marriott property. We arrived in Houston very early. Once we got to baggage claim, I called the hotel for shuttle pick up. I was told where to go and shuttle would be there in about 10 minutes. While waiting for the shuttle, I received a call from Courtyard saying we would be staying there instead of where I had originally booked. Once we arrived at the hotel, Jaz did an excellent job of addressing all of my concerns. The room and service exceeded my expectations. The staff at both hotels worked together to make sure we were very well accommodated. I appreciate the kindness and generosity of both staff. When in the area again, will definitely try to stay here. This Marriott experience was MUCH better than my last experience in February.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Carla R, Manager at Courtyard Houston North, responded to this reviewResponded May 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2018</t>
+  </si>
+  <si>
+    <t>We were in town for a women's conference. I had made reservations at another Marriott property. We arrived in Houston very early. Once we got to baggage claim, I called the hotel for shuttle pick up. I was told where to go and shuttle would be there in about 10 minutes. While waiting for the shuttle, I received a call from Courtyard saying we would be staying there instead of where I had originally booked. Once we arrived at the hotel, Jaz did an excellent job of addressing all of my concerns. The room and service exceeded my expectations. The staff at both hotels worked together to make sure we were very well accommodated. I appreciate the kindness and generosity of both staff. When in the area again, will definitely try to stay here. This Marriott experience was MUCH better than my last experience in February.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r573826362-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573826362</t>
+  </si>
+  <si>
+    <t>04/16/2018</t>
+  </si>
+  <si>
+    <t>Small rooms but a decent stay</t>
+  </si>
+  <si>
+    <t>The Courtyard is typical with it's settings in the lobby, but you would expect the rooms to be a little more bigger for the price.  I mean, I've stayed in Holiday Inn's that would put this place to shame.  The bistro is a nice touch to get a snack, but nothing fancy with this one.  The customer service is fantastic and the amenities are about the same you would find in any other hotel.  For a week stay, it was a little cramped, but for a night or two, then you should be just fine.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded April 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2018</t>
+  </si>
+  <si>
+    <t>The Courtyard is typical with it's settings in the lobby, but you would expect the rooms to be a little more bigger for the price.  I mean, I've stayed in Holiday Inn's that would put this place to shame.  The bistro is a nice touch to get a snack, but nothing fancy with this one.  The customer service is fantastic and the amenities are about the same you would find in any other hotel.  For a week stay, it was a little cramped, but for a night or two, then you should be just fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r564149354-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564149354</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t>I am writing as I am in my 2nd night of a 3 night stay.  The first room we got smelled terribly of cigarettes, the front desk quickly gave me another room.  That night I noticed a bunch of live bugs crawling in the bathroom light.  I waited until morning and told the front desk.  They said do you want to change rooms, I said no we are unpacked just spray the room while we are out today.  Well I'm back and the bugs are still alive up there.  I can't go back because my child is sleeping. We were out all day and they didn't fix the problem.  The good thing about the hotel is the entire staff has been super friendly.  IMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>I am writing as I am in my 2nd night of a 3 night stay.  The first room we got smelled terribly of cigarettes, the front desk quickly gave me another room.  That night I noticed a bunch of live bugs crawling in the bathroom light.  I waited until morning and told the front desk.  They said do you want to change rooms, I said no we are unpacked just spray the room while we are out today.  Well I'm back and the bugs are still alive up there.  I can't go back because my child is sleeping. We were out all day and they didn't fix the problem.  The good thing about the hotel is the entire staff has been super friendly.  IMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r546904718-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546904718</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Comfy hotel conveniently near airport</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as it was close to Houston International Airport and close to our meeting locations.The staff are super friendly and I was able to check in super early as I had an earlier flight, so that was a bonus. They also offer a free shuttle so I simply called upon disembarking and they sent a shuttle, which arrived within 15min.My double queen room was very clean and roomy. Modern decor, ample lighting and located on first floor. Fridge, microwave, large flat screen tv, coffee maker, etc. The fridge door was a little hinky but not a big issue.  Beds are comfortable with plenty of large pillows.Lobby offers complimentary coffee, small sundries shop, business computers and printers, Bistro with limited menu for breakfast and dinner. The hotel also offers a free shuttle service for local restaurants and they provide a list of restaurants that are within 6miles of the hotel. There are maybe 3 places within walking distance but because of the roads and highways, it's not that simple to walk to. So, as there is not a lot in the immediate vicinity, if you don't have a car, the free shuttle is quite handy. I'd definitely stay here again and it looks like many people feel that way as one of my colleague s was unable to book a room for the night because it was full. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>martha h, Guest Relations Manager at Courtyard Houston North, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as it was close to Houston International Airport and close to our meeting locations.The staff are super friendly and I was able to check in super early as I had an earlier flight, so that was a bonus. They also offer a free shuttle so I simply called upon disembarking and they sent a shuttle, which arrived within 15min.My double queen room was very clean and roomy. Modern decor, ample lighting and located on first floor. Fridge, microwave, large flat screen tv, coffee maker, etc. The fridge door was a little hinky but not a big issue.  Beds are comfortable with plenty of large pillows.Lobby offers complimentary coffee, small sundries shop, business computers and printers, Bistro with limited menu for breakfast and dinner. The hotel also offers a free shuttle service for local restaurants and they provide a list of restaurants that are within 6miles of the hotel. There are maybe 3 places within walking distance but because of the roads and highways, it's not that simple to walk to. So, as there is not a lot in the immediate vicinity, if you don't have a car, the free shuttle is quite handy. I'd definitely stay here again and it looks like many people feel that way as one of my colleague s was unable to book a room for the night because it was full. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r503719168-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503719168</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Decent Place</t>
+  </si>
+  <si>
+    <t>Had a good night's sleep, good Wi-Fi, hot shower, and a reasonable breakfast.  Room had some mild odors, but it did not bother me.  Gym and pool both under construction and not really usable.  Hope to try them next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Had a good night's sleep, good Wi-Fi, hot shower, and a reasonable breakfast.  Room had some mild odors, but it did not bother me.  Gym and pool both under construction and not really usable.  Hope to try them next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r501326949-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>501326949</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>The hotel is ok, good enough to get some sleep and has basic essentials like laundry, fitness center, internet, and lobby bistro/bar.  It was clean for the most part.  Good for a business trip where all you care about is a bed to sleep, clean shower, and internet access.The toilet in my room ran all night and I had to shut off the water to the toilet so I could sleep.  The front desk said the maintenance guy left for the day and they couldn't do anything about it.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded July 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is ok, good enough to get some sleep and has basic essentials like laundry, fitness center, internet, and lobby bistro/bar.  It was clean for the most part.  Good for a business trip where all you care about is a bed to sleep, clean shower, and internet access.The toilet in my room ran all night and I had to shut off the water to the toilet so I could sleep.  The front desk said the maintenance guy left for the day and they couldn't do anything about it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r451887414-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451887414</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Lengthy stay was great</t>
+  </si>
+  <si>
+    <t>A recent change of location of my company's training facilities makes this particular hotel an ideal place to stay.  After a 10 day stay I am very happy to say that this Courtyard rates at the top of all the Marriott properties I have stayed at thru many years of business travel. The room is excellent.....wonderfully comfortable bed (my wife loved it!)....exceptionally clean and perfect air/heating.  Can't say enough about the staff....Manager Martha and all the front desk, bistro and housekeeping people were exceptional.  Special kudos for the bistro....excellent fare, especially the salads (couldn't get enough -- cobb, asian chicken and caesar -- plus tasty sandwiches.  I am very happy to say this was just the first of half a dozen extended stays this year.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded January 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2017</t>
+  </si>
+  <si>
+    <t>A recent change of location of my company's training facilities makes this particular hotel an ideal place to stay.  After a 10 day stay I am very happy to say that this Courtyard rates at the top of all the Marriott properties I have stayed at thru many years of business travel. The room is excellent.....wonderfully comfortable bed (my wife loved it!)....exceptionally clean and perfect air/heating.  Can't say enough about the staff....Manager Martha and all the front desk, bistro and housekeeping people were exceptional.  Special kudos for the bistro....excellent fare, especially the salads (couldn't get enough -- cobb, asian chicken and caesar -- plus tasty sandwiches.  I am very happy to say this was just the first of half a dozen extended stays this year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r451758843-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451758843</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Excellent for early arrival to IAH</t>
+  </si>
+  <si>
+    <t>I stay here frequently when I have an early morning flight out of IAH.  It is convenient to get to, nice rooms, clean and quiet.  I am able to leave my car for the period of time I am gone.  Arrive back late, stay overnight again and drive home the next day.  This last visit the shuttle driver was so helpful and the night desk clerk went above and beyond to assist me.  I will be back again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>martha h, Manager at Courtyard Houston North, responded to this reviewResponded January 15, 2017</t>
+  </si>
+  <si>
+    <t>I stay here frequently when I have an early morning flight out of IAH.  It is convenient to get to, nice rooms, clean and quiet.  I am able to leave my car for the period of time I am gone.  Arrive back late, stay overnight again and drive home the next day.  This last visit the shuttle driver was so helpful and the night desk clerk went above and beyond to assist me.  I will be back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r425578385-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>425578385</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Very accommodating. We arrived late and they had everything ready for us. Lovely staff. Great breakfast also :-) We appreciate the goody bags too. And the decorations for Super Bowl were nice. Can't say enough.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2016</t>
+  </si>
+  <si>
+    <t>Very accommodating. We arrived late and they had everything ready for us. Lovely staff. Great breakfast also :-) We appreciate the goody bags too. And the decorations for Super Bowl were nice. Can't say enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r386827003-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386827003</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Simple but clean!</t>
+  </si>
+  <si>
+    <t>Here at the courtyard once more.  The hotel has a nice lounge and dining facility but the reasons I continue to stay here are the rates are reasonable and the rooms are always clean!  It feels good being able to trust my pillows are clean when I lie down at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2016</t>
+  </si>
+  <si>
+    <t>Here at the courtyard once more.  The hotel has a nice lounge and dining facility but the reasons I continue to stay here are the rates are reasonable and the rooms are always clean!  It feels good being able to trust my pillows are clean when I lie down at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r383417036-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383417036</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Ok for 1 night stay, but I was not Impressed!</t>
+  </si>
+  <si>
+    <t>My business partners and I stayed here last week and as the review title states we were not overly impressed. The lobby was your typical "Courtyard" style and in great shape, but the moment you step into the elevator and more importantly into your room there isn't much to brag about. The smell was quite dingy in our room. Bathroom was outdated and dirty. We found loose hairs everywhere, the beds didn't smell fresh at all. Overall I wasn't impressed and for the amount we paid, there are better options near the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded June 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2016</t>
+  </si>
+  <si>
+    <t>My business partners and I stayed here last week and as the review title states we were not overly impressed. The lobby was your typical "Courtyard" style and in great shape, but the moment you step into the elevator and more importantly into your room there isn't much to brag about. The smell was quite dingy in our room. Bathroom was outdated and dirty. We found loose hairs everywhere, the beds didn't smell fresh at all. Overall I wasn't impressed and for the amount we paid, there are better options near the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r379421803-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379421803</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Tired Hotel, Tired Employees</t>
+  </si>
+  <si>
+    <t>We love staying at Marriott properties and having been doing so for thirty years. We lost a little of that love with this property. In our single experience, the Marriott Courtyard Houston North is a tired property with nighttime employees who are tired of guests.
+Let me preface by saying storms had hit the Houston area, our flight was late and thousands were stranded. No rental cars to be had, taxis were at a premium and available hotel rooms were non-existent. We had (fortunately?) made reservations six hours earlier knowing that we would miss our connecting flight out of Houston and it would require us to stay overnight. When we made our reservation, this was the only Marriott property available that was close to the airport (four miles away).
+We arrived in the hotel lobby around 1:30am to find the night check-in person arguing with someone attempting to check-in. She ended their conversation abruptly by turning to us and asking, “Can I help you?” We told her we had a reservation and she replied there were no rooms. My husband proceeded to show her our guaranteed confirmed reservation and she continued to say, “It does not matter. We have no rooms.” Repeatedly. 
+All in all, eight guests with confirmed reservations were told there were no rooms. Repeatedly. Frustrated that we would not leave, the night clerk, at one point, looked me straight in the eyes and told me to walk...We love staying at Marriott properties and having been doing so for thirty years. We lost a little of that love with this property. In our single experience, the Marriott Courtyard Houston North is a tired property with nighttime employees who are tired of guests.Let me preface by saying storms had hit the Houston area, our flight was late and thousands were stranded. No rental cars to be had, taxis were at a premium and available hotel rooms were non-existent. We had (fortunately?) made reservations six hours earlier knowing that we would miss our connecting flight out of Houston and it would require us to stay overnight. When we made our reservation, this was the only Marriott property available that was close to the airport (four miles away).We arrived in the hotel lobby around 1:30am to find the night check-in person arguing with someone attempting to check-in. She ended their conversation abruptly by turning to us and asking, “Can I help you?” We told her we had a reservation and she replied there were no rooms. My husband proceeded to show her our guaranteed confirmed reservation and she continued to say, “It does not matter. We have no rooms.” Repeatedly. All in all, eight guests with confirmed reservations were told there were no rooms. Repeatedly. Frustrated that we would not leave, the night clerk, at one point, looked me straight in the eyes and told me to walk out the door. We waited. We had nowhere to go. Another nighttime employee arrived from the Residence Inn next door to help. He navigated around on the check-in computer and also told us no rooms were available. Three people who had cars gave up and left. We stayed. No taxis were available. This second night clerk then made reservations for us at another Marriott Courtyard on Louett Drive. He finally had to abandon moving us to that hotel because he could not find transportation. Then, an hour after our arrival, this second night clerk announced rooms were now available for us. No, no one had moved out. They just miraculously found rooms. The Marriott’s smoking-not-allowed third floor hallway smelled of cigarette smoke. Room 307. I turned off the loud humidifier contraption in our tired room. Truly not expecting much because it was an older hotel and we were now three-in-the-morning-exhausted, we didn’t even mind the hard bed . . . or the lights by the bed that did not work . . . or the telephone that did not work . . . or the hair dryer that did not work.Overall, the hotel is tired and in need of repair and updating; and, the nighttime staff’s treatment of their arriving guests was unprofessional, unhelpful, and just plain insulting.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>martha h, Manager at Courtyard Houston North, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>We love staying at Marriott properties and having been doing so for thirty years. We lost a little of that love with this property. In our single experience, the Marriott Courtyard Houston North is a tired property with nighttime employees who are tired of guests.
+Let me preface by saying storms had hit the Houston area, our flight was late and thousands were stranded. No rental cars to be had, taxis were at a premium and available hotel rooms were non-existent. We had (fortunately?) made reservations six hours earlier knowing that we would miss our connecting flight out of Houston and it would require us to stay overnight. When we made our reservation, this was the only Marriott property available that was close to the airport (four miles away).
+We arrived in the hotel lobby around 1:30am to find the night check-in person arguing with someone attempting to check-in. She ended their conversation abruptly by turning to us and asking, “Can I help you?” We told her we had a reservation and she replied there were no rooms. My husband proceeded to show her our guaranteed confirmed reservation and she continued to say, “It does not matter. We have no rooms.” Repeatedly. 
+All in all, eight guests with confirmed reservations were told there were no rooms. Repeatedly. Frustrated that we would not leave, the night clerk, at one point, looked me straight in the eyes and told me to walk...We love staying at Marriott properties and having been doing so for thirty years. We lost a little of that love with this property. In our single experience, the Marriott Courtyard Houston North is a tired property with nighttime employees who are tired of guests.Let me preface by saying storms had hit the Houston area, our flight was late and thousands were stranded. No rental cars to be had, taxis were at a premium and available hotel rooms were non-existent. We had (fortunately?) made reservations six hours earlier knowing that we would miss our connecting flight out of Houston and it would require us to stay overnight. When we made our reservation, this was the only Marriott property available that was close to the airport (four miles away).We arrived in the hotel lobby around 1:30am to find the night check-in person arguing with someone attempting to check-in. She ended their conversation abruptly by turning to us and asking, “Can I help you?” We told her we had a reservation and she replied there were no rooms. My husband proceeded to show her our guaranteed confirmed reservation and she continued to say, “It does not matter. We have no rooms.” Repeatedly. All in all, eight guests with confirmed reservations were told there were no rooms. Repeatedly. Frustrated that we would not leave, the night clerk, at one point, looked me straight in the eyes and told me to walk out the door. We waited. We had nowhere to go. Another nighttime employee arrived from the Residence Inn next door to help. He navigated around on the check-in computer and also told us no rooms were available. Three people who had cars gave up and left. We stayed. No taxis were available. This second night clerk then made reservations for us at another Marriott Courtyard on Louett Drive. He finally had to abandon moving us to that hotel because he could not find transportation. Then, an hour after our arrival, this second night clerk announced rooms were now available for us. No, no one had moved out. They just miraculously found rooms. The Marriott’s smoking-not-allowed third floor hallway smelled of cigarette smoke. Room 307. I turned off the loud humidifier contraption in our tired room. Truly not expecting much because it was an older hotel and we were now three-in-the-morning-exhausted, we didn’t even mind the hard bed . . . or the lights by the bed that did not work . . . or the telephone that did not work . . . or the hair dryer that did not work.Overall, the hotel is tired and in need of repair and updating; and, the nighttime staff’s treatment of their arriving guests was unprofessional, unhelpful, and just plain insulting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r371265975-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371265975</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>We are rating this 5 stars because the customer service was excellent.  Martin made us feel welcome from when we first checked in to the hotel.  He was even back on shift when we checked out the next day!  The hotel is slightly older, but was equipped with everything we needed for our short stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>We are rating this 5 stars because the customer service was excellent.  Martin made us feel welcome from when we first checked in to the hotel.  He was even back on shift when we checked out the next day!  The hotel is slightly older, but was equipped with everything we needed for our short stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r368709893-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368709893</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>Industrial park/interstate location</t>
+  </si>
+  <si>
+    <t>There is nothing within walking distance of this hotel except for an industrial park.  Shuttle drivers say it's not a very safe area.  Shuttle drivers will take you to nearby restaurants, but those are still 5+ miles away.  Shuttle service is on the slow side, but that's just because the airport and restaurants aren't exactly close by.  I don't like the feeling of being isolated.Furniture in the rooms seems dated.  But, if all you care about is sleep, then you will enjoy the comfy beds, pillows and bedding.  Food in the bistro was decent.  Staff were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded April 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2016</t>
+  </si>
+  <si>
+    <t>There is nothing within walking distance of this hotel except for an industrial park.  Shuttle drivers say it's not a very safe area.  Shuttle drivers will take you to nearby restaurants, but those are still 5+ miles away.  Shuttle service is on the slow side, but that's just because the airport and restaurants aren't exactly close by.  I don't like the feeling of being isolated.Furniture in the rooms seems dated.  But, if all you care about is sleep, then you will enjoy the comfy beds, pillows and bedding.  Food in the bistro was decent.  Staff were friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r364466723-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364466723</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>Stuck in Houston</t>
+  </si>
+  <si>
+    <t>We were stuck in Houston during a blizzard that closed our airport at home in Denver. Pleasantly surprised at great bar and menu options, and excellent service although the bar was swamped with other stranded travelers.  Servers Schlayia &amp; Anthony were personable and prompt, helped ease our frazzled nerves.  Guest room was great.  This property &amp; staff helped turn a bad situation into a pleasant one after all.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded April 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2016</t>
+  </si>
+  <si>
+    <t>We were stuck in Houston during a blizzard that closed our airport at home in Denver. Pleasantly surprised at great bar and menu options, and excellent service although the bar was swamped with other stranded travelers.  Servers Schlayia &amp; Anthony were personable and prompt, helped ease our frazzled nerves.  Guest room was great.  This property &amp; staff helped turn a bad situation into a pleasant one after all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r356961043-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356961043</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Good mid class airport hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for one night. Fine hotel for business travellers, especially for short stays. Not much to do around. Ok simple fitness room and indoor pool. Room was clean and well equipped. My room, situated on the front side of the hotel, was noisy due to the busy road 100m from the hotel. Noise isolation was not very well. Did not keep me from sleeping thanks to my earplugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for one night. Fine hotel for business travellers, especially for short stays. Not much to do around. Ok simple fitness room and indoor pool. Room was clean and well equipped. My room, situated on the front side of the hotel, was noisy due to the busy road 100m from the hotel. Noise isolation was not very well. Did not keep me from sleeping thanks to my earplugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r352264364-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>352264364</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, clean older rooms </t>
+  </si>
+  <si>
+    <t>We had a small older room with a humidifier running (which made white noise so not too bad). The reception staff was very friendly &amp; helpful. Public area was renovated with a nice bistro area. Free convenient well lit parking made for easy in &amp; out.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded March 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2016</t>
+  </si>
+  <si>
+    <t>We had a small older room with a humidifier running (which made white noise so not too bad). The reception staff was very friendly &amp; helpful. Public area was renovated with a nice bistro area. Free convenient well lit parking made for easy in &amp; out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r348895154-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>348895154</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Place and Great Staff </t>
+  </si>
+  <si>
+    <t>I was generally impressed with the cleanliness of the hotel and the service I received from the staff. Was greeted with a smile and went out of their way to make me feel welcome. Called for shuttle and they arrived quickly to pick up my family and I. I would definitely stay at the Courtyard again on my next visit !!! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2016</t>
+  </si>
+  <si>
+    <t>I was generally impressed with the cleanliness of the hotel and the service I received from the staff. Was greeted with a smile and went out of their way to make me feel welcome. Called for shuttle and they arrived quickly to pick up my family and I. I would definitely stay at the Courtyard again on my next visit !!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r333421249-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333421249</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Easy to get to from the airport but shuttle service was a bit lacking.  Rooms are fine...nothing fancy and it is clean.  The bistro is nice for late arrival and a pretty decent breakfast to kickstart early the next morning.  Staff was extremely friendly and supportive.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Easy to get to from the airport but shuttle service was a bit lacking.  Rooms are fine...nothing fancy and it is clean.  The bistro is nice for late arrival and a pretty decent breakfast to kickstart early the next morning.  Staff was extremely friendly and supportive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r333408024-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333408024</t>
+  </si>
+  <si>
+    <t>Amazing service</t>
+  </si>
+  <si>
+    <t>Got picked up at the airport. Shuttle driver was very friendly. Check in experience was great! Marina was awesome. She even called my room to make sure everything was okay. They hotel does provide airport shuttle and a local shuttle. Diana was amazing. She provided great hospitality and made me feel very welcome! If you want to have a drink, let jasmine know and she will make you a great one! Room was clean and beds were comfy! Thanks ladies for taking great care of me! That's what Marriott is all about! Will come back! MoreShow less</t>
+  </si>
+  <si>
+    <t>Got picked up at the airport. Shuttle driver was very friendly. Check in experience was great! Marina was awesome. She even called my room to make sure everything was okay. They hotel does provide airport shuttle and a local shuttle. Diana was amazing. She provided great hospitality and made me feel very welcome! If you want to have a drink, let jasmine know and she will make you a great one! Room was clean and beds were comfy! Thanks ladies for taking great care of me! That's what Marriott is all about! Will come back! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r333292265-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333292265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly, clean, very accommodating </t>
+  </si>
+  <si>
+    <t>We had an overnight stay for a flight in Houston. Although not as close to the airport as we thought, the shuttle service was prompt. The entire staff was extremely friendly and helpful. Our room was spotless and perfect. Would highly recommend this hotel. Cute little bistro w good food too, open until 9:30.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had an overnight stay for a flight in Houston. Although not as close to the airport as we thought, the shuttle service was prompt. The entire staff was extremely friendly and helpful. Our room was spotless and perfect. Would highly recommend this hotel. Cute little bistro w good food too, open until 9:30.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r322901846-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322901846</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Auto Break ins</t>
+  </si>
+  <si>
+    <t>While traveling on company business we booked this hotel due to proximity to working location.  During the evening 6 cars were broken into in the parking lot, one car right beside the entrance to the hotel.  People were seen in the parking lot with flashlights looking into cars, but no security or camera's on exterior of building.  They spent time in each vehicle to pull this off, so it did not happen in just a couple of minutes.  When i reported to manager (Marsha) she was nonchalant stating they had security and she "understood" the situation, but that was her last comment.The interior of the hotel is nice but i would not stay at this location if i was driving into town, to big a risk.  For a Marriott, where you expect and pay for better service and accomdations you have expectations, which they absolutely failed to fulfill.  I would not stay here under any circumstance.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>While traveling on company business we booked this hotel due to proximity to working location.  During the evening 6 cars were broken into in the parking lot, one car right beside the entrance to the hotel.  People were seen in the parking lot with flashlights looking into cars, but no security or camera's on exterior of building.  They spent time in each vehicle to pull this off, so it did not happen in just a couple of minutes.  When i reported to manager (Marsha) she was nonchalant stating they had security and she "understood" the situation, but that was her last comment.The interior of the hotel is nice but i would not stay at this location if i was driving into town, to big a risk.  For a Marriott, where you expect and pay for better service and accomdations you have expectations, which they absolutely failed to fulfill.  I would not stay here under any circumstance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r320539665-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320539665</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>Sub-par for the Courtyard brand.</t>
+  </si>
+  <si>
+    <t>The hotel is in big need of a renovation. The rooms have thin walls and are dirty and musty. I have never had such poor service. I am a Marriott Gold member and mentioned that I have a room next to the elevator twice and could not sleep (the hotel was not near capacity, so I should have had some preference on room type). The response from the on duty attendant was the most patronizing I have ever received. I was literally just given an "oohh" as a response both times (this was my 3rd of 4 hotel stays that week, so the lack of sympathy was particularly aggravating - especially since the hotel was nowhere near capacity). The quick service breakfast took 25 minutes to arrive, and the ordered espresso drink did not arrive at the same time. I had to re-order that. In general, I prefer Courtyard and Marriott branded hotels, but this one was so sub-par, I am rethinking my Courtyard brand loyalty. I am very disappointed with the lack of empathy in service.On a side note, beware of the location. There is limited access to restaurants and amenities. I wouldn't stay in this immediate area again. There are so many better options for location and hotel in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is in big need of a renovation. The rooms have thin walls and are dirty and musty. I have never had such poor service. I am a Marriott Gold member and mentioned that I have a room next to the elevator twice and could not sleep (the hotel was not near capacity, so I should have had some preference on room type). The response from the on duty attendant was the most patronizing I have ever received. I was literally just given an "oohh" as a response both times (this was my 3rd of 4 hotel stays that week, so the lack of sympathy was particularly aggravating - especially since the hotel was nowhere near capacity). The quick service breakfast took 25 minutes to arrive, and the ordered espresso drink did not arrive at the same time. I had to re-order that. In general, I prefer Courtyard and Marriott branded hotels, but this one was so sub-par, I am rethinking my Courtyard brand loyalty. I am very disappointed with the lack of empathy in service.On a side note, beware of the location. There is limited access to restaurants and amenities. I wouldn't stay in this immediate area again. There are so many better options for location and hotel in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r320411284-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320411284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great additional features. </t>
+  </si>
+  <si>
+    <t>I've stayed here for two nights.  I didn't use the hotel shuttle bus but they have one to pick up guest at the airport and take them to the neighborhood mall.  The best perk about this place is the gym. They have an on-site workout facility but also teamed up with a neighboring gym that is as big as the hotel (it's huge) with workout classes. The area around the hotel is not the best of neighborhoods. But it works. The hotel is out dated especially for the price that I paid. For a business trip I would come back.   MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>I've stayed here for two nights.  I didn't use the hotel shuttle bus but they have one to pick up guest at the airport and take them to the neighborhood mall.  The best perk about this place is the gym. They have an on-site workout facility but also teamed up with a neighboring gym that is as big as the hotel (it's huge) with workout classes. The area around the hotel is not the best of neighborhoods. But it works. The hotel is out dated especially for the price that I paid. For a business trip I would come back.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r283635148-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283635148</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Marriott Courtyard Houston North (Hedgecroft Dr)</t>
+  </si>
+  <si>
+    <t>Very nice hotel, built for business traveler. Nice amenities and in good area for the location, was safe and security was at night. Staff was very nice and professional, had hourly rides to GW Bush airport. I felt I would let my kids go to pool alone and back safe.Downside:Ask for mini fridge, as there is nothing to heat up or keep cool your leftovers or snacks.Nothing is around to eat except a few fast food places and the hotel is on a one way street, so you have to go around the back of hotel and back up again to get something quick.Hotel's dinner/cafe is too high, I spend $10 for just eggs and a small side. Eat before you get there or leave earlier to get a good bfastMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel, built for business traveler. Nice amenities and in good area for the location, was safe and security was at night. Staff was very nice and professional, had hourly rides to GW Bush airport. I felt I would let my kids go to pool alone and back safe.Downside:Ask for mini fridge, as there is nothing to heat up or keep cool your leftovers or snacks.Nothing is around to eat except a few fast food places and the hotel is on a one way street, so you have to go around the back of hotel and back up again to get something quick.Hotel's dinner/cafe is too high, I spend $10 for just eggs and a small side. Eat before you get there or leave earlier to get a good bfastMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r282120851-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282120851</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Best Courtyard Experience</t>
+  </si>
+  <si>
+    <t>I have stayed at many Marriott CY throughout the years.  Although it was only a short stay, the hotel was extremely clean and the staff was very friendly. From the time we received our luggage from IAH airport we were in our room 30 minutes later. The shuttle was actually waiting for us at the terminal. Maybe timing? But, it was very convenient. I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at many Marriott CY throughout the years.  Although it was only a short stay, the hotel was extremely clean and the staff was very friendly. From the time we received our luggage from IAH airport we were in our room 30 minutes later. The shuttle was actually waiting for us at the terminal. Maybe timing? But, it was very convenient. I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r279374897-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279374897</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t>I really liked the service from the staff, I found the hotel nice, clean and comfortable however I have to say that was not good at the time to wannabes eat something... No restaurant.They can take you but it's with transportation every hour and pick you up hard to coordinate MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded June 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2015</t>
+  </si>
+  <si>
+    <t>I really liked the service from the staff, I found the hotel nice, clean and comfortable however I have to say that was not good at the time to wannabes eat something... No restaurant.They can take you but it's with transportation every hour and pick you up hard to coordinate More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r273173399-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>273173399</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>A clean place to stay somewhat near the airport, but it is not quiet or peaceful</t>
+  </si>
+  <si>
+    <t>I wish hotels couldn't use the Courtyard brand if they don't actually have a courtyard.  Most Courtyard properties have rooms that surround an idyllic, peaceful centerpiece which features pools, gardens, etc.  Not this place.  It faces a busy freeway which generates tremendous noise day and night and seems to have no quiet area.  On top of that you frequently hear planes flying overhead.  This was not a very restful trip for me.Despite my Platinum status, I neither got the room that I asked for nor the view I wanted.  There are just a couple choices for breakfast and none that I wanted; I miss the breakfast buffet that courtyard had before.  An hour before checking out (after a 5 night stay) I got an email from the manager asking me to reply if I needed anything during my stay.The whole place is very clean and in good shape, the staff was friendly and the bed was comfortable.  I've just come to expect more.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I wish hotels couldn't use the Courtyard brand if they don't actually have a courtyard.  Most Courtyard properties have rooms that surround an idyllic, peaceful centerpiece which features pools, gardens, etc.  Not this place.  It faces a busy freeway which generates tremendous noise day and night and seems to have no quiet area.  On top of that you frequently hear planes flying overhead.  This was not a very restful trip for me.Despite my Platinum status, I neither got the room that I asked for nor the view I wanted.  There are just a couple choices for breakfast and none that I wanted; I miss the breakfast buffet that courtyard had before.  An hour before checking out (after a 5 night stay) I got an email from the manager asking me to reply if I needed anything during my stay.The whole place is very clean and in good shape, the staff was friendly and the bed was comfortable.  I've just come to expect more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r272160426-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272160426</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>Great stay!!</t>
+  </si>
+  <si>
+    <t>This hotel lives up to the Marriott standard! Location is perfect distance from my work site. The staff is very professional and helpful..Also I like my room lol.........!Thanks Courtyard for a comfortable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel lives up to the Marriott standard! Location is perfect distance from my work site. The staff is very professional and helpful..Also I like my room lol.........!Thanks Courtyard for a comfortable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r249163639-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249163639</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Guest by Airline at Hotel</t>
+  </si>
+  <si>
+    <t>We missed an airline connection in Denver on a trip to Central America and we were given vouchers to stay at the Courtyard. We were given a ride to the hotel my another Marriott shuttle van. Our luggage was held at the airport and the hotel provided all needed toiletry items not in our carry-ons.  There was a nice restaurant, bar, and area for watching the play-off games.  There was a nice variety of menu items to choose from.  The food was good.The room was very comfortable and had all the amenities. The noise was minimal from the outside. We also used the shuttle service to return to the airport the following morning.All staff was very friendly and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>We missed an airline connection in Denver on a trip to Central America and we were given vouchers to stay at the Courtyard. We were given a ride to the hotel my another Marriott shuttle van. Our luggage was held at the airport and the hotel provided all needed toiletry items not in our carry-ons.  There was a nice restaurant, bar, and area for watching the play-off games.  There was a nice variety of menu items to choose from.  The food was good.The room was very comfortable and had all the amenities. The noise was minimal from the outside. We also used the shuttle service to return to the airport the following morning.All staff was very friendly and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r240394821-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240394821</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Good for airport hotel</t>
+  </si>
+  <si>
+    <t>I thought this was a very good little airport hotel.  We were able to leave our car there and had a ride from the shuttle to the airport.   Had a nice little bar/cafe in it and service was very good, everyone was friendly and accomodating.   IT was very comfortable and pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>I thought this was a very good little airport hotel.  We were able to leave our car there and had a ride from the shuttle to the airport.   Had a nice little bar/cafe in it and service was very good, everyone was friendly and accomodating.   IT was very comfortable and pleasant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r238723047-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238723047</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Less convenient without a car</t>
+  </si>
+  <si>
+    <t>I only had a short stay here, because it was closer to another place I was going to and it had airport shuttles, and I knew beforehand that there's only a small bistro on-site. The hotel itself feels new, modern, conveniently and comfortably furnished. Lovely bathroom, great bed. Generally friendly staff. I am ok with the hourly airport shuttle. Yes, it's a bit further than I would've expected for an airport hotel, but then again, for the room rates, it's still a plausible distance and decent value compared to the hotels that are really near to the airport. I found it convenient enough, considering that it seems nowhere is really 'near' to anywhere, in Texas. There isn't much else at the hotel. The bistro opens for breakfast and dinner. I had expected it to be open all day, so it was a tad inconvenient - which would be a bigger deal had I stayed for longer. The food options aren't great, especially if you have dietary restrictions e.g. vegetarian. It doesn't feel easy to go out someplace else for meals without a car. Nonetheless, they had this spinach and egg fricassee thing on the breakfast menu which was simply excellent, so breakfast was all right. It would be better to have lunch options too. However they do have a little snacks nook where you could buy light snacks so that was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>I only had a short stay here, because it was closer to another place I was going to and it had airport shuttles, and I knew beforehand that there's only a small bistro on-site. The hotel itself feels new, modern, conveniently and comfortably furnished. Lovely bathroom, great bed. Generally friendly staff. I am ok with the hourly airport shuttle. Yes, it's a bit further than I would've expected for an airport hotel, but then again, for the room rates, it's still a plausible distance and decent value compared to the hotels that are really near to the airport. I found it convenient enough, considering that it seems nowhere is really 'near' to anywhere, in Texas. There isn't much else at the hotel. The bistro opens for breakfast and dinner. I had expected it to be open all day, so it was a tad inconvenient - which would be a bigger deal had I stayed for longer. The food options aren't great, especially if you have dietary restrictions e.g. vegetarian. It doesn't feel easy to go out someplace else for meals without a car. Nonetheless, they had this spinach and egg fricassee thing on the breakfast menu which was simply excellent, so breakfast was all right. It would be better to have lunch options too. However they do have a little snacks nook where you could buy light snacks so that was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r230760547-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230760547</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Helpful TIps for Courtyard on Hedgecroft Drive (Airport Courtyard?)</t>
+  </si>
+  <si>
+    <t>I am a regular traveler and have stayed at many courtyards. THis is not one I would visit again. Here are some tips to help you
+1) Let me say first off that the front desk staff was the exception to my subpar stay - the front desk staff was excellent, courteous, and very helpful. they did a nice job
+2) location - it's hard to call this an 'airport' hotel when it's a 15+ minute drive to get there (and $20-25 cab ride). they have an airport shuttle but it only leaves once/hour on the hour so not that convenient. also I think I passed 10+ other hotels that are much closer to the airport and there was at least a couple in the marriott family
+3) rooms/lobby  - yes it's been updated but it still looks a bit rundown. the lobby already seems kind of older and the rooms were just ok but there is quite a bit of outside noise from the nearby roads at night while you are trying to sleep
+4) bistro - this is one of the main reasons for my downgrade. first off it was not busy yet nobody came out to help me for at least 10 minutes. the food was absolutely awful (I'm sorry but that's the truth) - the chicken wings were literally the worst I have eaten in years (undercooked, rubbery, tasteless) and the pizza was way too doughy....I am a regular traveler and have stayed at many courtyards. THis is not one I would visit again. Here are some tips to help you1) Let me say first off that the front desk staff was the exception to my subpar stay - the front desk staff was excellent, courteous, and very helpful. they did a nice job2) location - it's hard to call this an 'airport' hotel when it's a 15+ minute drive to get there (and $20-25 cab ride). they have an airport shuttle but it only leaves once/hour on the hour so not that convenient. also I think I passed 10+ other hotels that are much closer to the airport and there was at least a couple in the marriott family3) rooms/lobby  - yes it's been updated but it still looks a bit rundown. the lobby already seems kind of older and the rooms were just ok but there is quite a bit of outside noise from the nearby roads at night while you are trying to sleep4) bistro - this is one of the main reasons for my downgrade. first off it was not busy yet nobody came out to help me for at least 10 minutes. the food was absolutely awful (I'm sorry but that's the truth) - the chicken wings were literally the worst I have eaten in years (undercooked, rubbery, tasteless) and the pizza was way too doughy. The waiter never once smiled or spoke in anything other than a mumble and did nothing to show he even cared. Quite simply it was a real shame and for the price it was terrible. ($9.99 for 6 wings and $15 for a bad pizza)As I said the only bright spot was the friendliness of the front desk, yet for all the other reasons I would not return.  SorryMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>CourtyardIAH_GM, General Manager at Courtyard Houston North, responded to this reviewResponded September 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2014</t>
+  </si>
+  <si>
+    <t>I am a regular traveler and have stayed at many courtyards. THis is not one I would visit again. Here are some tips to help you
+1) Let me say first off that the front desk staff was the exception to my subpar stay - the front desk staff was excellent, courteous, and very helpful. they did a nice job
+2) location - it's hard to call this an 'airport' hotel when it's a 15+ minute drive to get there (and $20-25 cab ride). they have an airport shuttle but it only leaves once/hour on the hour so not that convenient. also I think I passed 10+ other hotels that are much closer to the airport and there was at least a couple in the marriott family
+3) rooms/lobby  - yes it's been updated but it still looks a bit rundown. the lobby already seems kind of older and the rooms were just ok but there is quite a bit of outside noise from the nearby roads at night while you are trying to sleep
+4) bistro - this is one of the main reasons for my downgrade. first off it was not busy yet nobody came out to help me for at least 10 minutes. the food was absolutely awful (I'm sorry but that's the truth) - the chicken wings were literally the worst I have eaten in years (undercooked, rubbery, tasteless) and the pizza was way too doughy....I am a regular traveler and have stayed at many courtyards. THis is not one I would visit again. Here are some tips to help you1) Let me say first off that the front desk staff was the exception to my subpar stay - the front desk staff was excellent, courteous, and very helpful. they did a nice job2) location - it's hard to call this an 'airport' hotel when it's a 15+ minute drive to get there (and $20-25 cab ride). they have an airport shuttle but it only leaves once/hour on the hour so not that convenient. also I think I passed 10+ other hotels that are much closer to the airport and there was at least a couple in the marriott family3) rooms/lobby  - yes it's been updated but it still looks a bit rundown. the lobby already seems kind of older and the rooms were just ok but there is quite a bit of outside noise from the nearby roads at night while you are trying to sleep4) bistro - this is one of the main reasons for my downgrade. first off it was not busy yet nobody came out to help me for at least 10 minutes. the food was absolutely awful (I'm sorry but that's the truth) - the chicken wings were literally the worst I have eaten in years (undercooked, rubbery, tasteless) and the pizza was way too doughy. The waiter never once smiled or spoke in anything other than a mumble and did nothing to show he even cared. Quite simply it was a real shame and for the price it was terrible. ($9.99 for 6 wings and $15 for a bad pizza)As I said the only bright spot was the friendliness of the front desk, yet for all the other reasons I would not return.  SorryMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r209828574-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209828574</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Just doesn't meet Marriott standards</t>
+  </si>
+  <si>
+    <t>I love Marriott and stay over 100 nights a year at Marriott properties so I hate to give a Marriott property less than 3 or 4 stars. With that being said, this Courtyard...even though it is one of the remodeled lobby Courtyards...does not meet Marriott standards. If you ride the shuttle to the airport, they only have one every hour. So that means that if your flight is at 8:30 am, you need to take the 6 am shuttle! Horrible customer service. In my room they had the refrigerator and microwave BETWEEN the desk and the TV, so you couldn't sit at the desk and watch TV while you worked unless you did a little furniture moving. (Missing the whole concept of the Marriott Courtyard remodel several years ago where Marriott spent big bucks and did extensive studies only to find out what I could have told them if they would have just asked me...businessmen like to sit at their desk and watch TV while they work.) The exercise room has older equipment...Precor so good equipment...just older. My room REEKED of cigarette smoke . The thermostat on the wall had a sign that said the temperature controls were on the window unit...wait...didn't all of the hotels in America above the level of Motel 6's move away from window unit thermostats sometime back in the 90's?  The employees were all very friendly...but that doesn't make up for all of the other...I love Marriott and stay over 100 nights a year at Marriott properties so I hate to give a Marriott property less than 3 or 4 stars. With that being said, this Courtyard...even though it is one of the remodeled lobby Courtyards...does not meet Marriott standards. If you ride the shuttle to the airport, they only have one every hour. So that means that if your flight is at 8:30 am, you need to take the 6 am shuttle! Horrible customer service. In my room they had the refrigerator and microwave BETWEEN the desk and the TV, so you couldn't sit at the desk and watch TV while you worked unless you did a little furniture moving. (Missing the whole concept of the Marriott Courtyard remodel several years ago where Marriott spent big bucks and did extensive studies only to find out what I could have told them if they would have just asked me...businessmen like to sit at their desk and watch TV while they work.) The exercise room has older equipment...Precor so good equipment...just older. My room REEKED of cigarette smoke . The thermostat on the wall had a sign that said the temperature controls were on the window unit...wait...didn't all of the hotels in America above the level of Motel 6's move away from window unit thermostats sometime back in the 90's?  The employees were all very friendly...but that doesn't make up for all of the other issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>CourtyardIAH_GM, General Manager at Courtyard Houston North, responded to this reviewResponded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2014</t>
+  </si>
+  <si>
+    <t>I love Marriott and stay over 100 nights a year at Marriott properties so I hate to give a Marriott property less than 3 or 4 stars. With that being said, this Courtyard...even though it is one of the remodeled lobby Courtyards...does not meet Marriott standards. If you ride the shuttle to the airport, they only have one every hour. So that means that if your flight is at 8:30 am, you need to take the 6 am shuttle! Horrible customer service. In my room they had the refrigerator and microwave BETWEEN the desk and the TV, so you couldn't sit at the desk and watch TV while you worked unless you did a little furniture moving. (Missing the whole concept of the Marriott Courtyard remodel several years ago where Marriott spent big bucks and did extensive studies only to find out what I could have told them if they would have just asked me...businessmen like to sit at their desk and watch TV while they work.) The exercise room has older equipment...Precor so good equipment...just older. My room REEKED of cigarette smoke . The thermostat on the wall had a sign that said the temperature controls were on the window unit...wait...didn't all of the hotels in America above the level of Motel 6's move away from window unit thermostats sometime back in the 90's?  The employees were all very friendly...but that doesn't make up for all of the other...I love Marriott and stay over 100 nights a year at Marriott properties so I hate to give a Marriott property less than 3 or 4 stars. With that being said, this Courtyard...even though it is one of the remodeled lobby Courtyards...does not meet Marriott standards. If you ride the shuttle to the airport, they only have one every hour. So that means that if your flight is at 8:30 am, you need to take the 6 am shuttle! Horrible customer service. In my room they had the refrigerator and microwave BETWEEN the desk and the TV, so you couldn't sit at the desk and watch TV while you worked unless you did a little furniture moving. (Missing the whole concept of the Marriott Courtyard remodel several years ago where Marriott spent big bucks and did extensive studies only to find out what I could have told them if they would have just asked me...businessmen like to sit at their desk and watch TV while they work.) The exercise room has older equipment...Precor so good equipment...just older. My room REEKED of cigarette smoke . The thermostat on the wall had a sign that said the temperature controls were on the window unit...wait...didn't all of the hotels in America above the level of Motel 6's move away from window unit thermostats sometime back in the 90's?  The employees were all very friendly...but that doesn't make up for all of the other issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r201060528-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>201060528</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night before flight home. I found the staff to be very nice, our rooms were not quite ready when we arrived. The staff stowed our bags and had the shuttle take us to a restaurant they front desk person recommended.The only problem we had with the shuttle we had about a 40 minute wait from when we called the hotel to when it arrived at the Houston airport. Otherwise, we had no issues with the shuttle taking us to dinner, picking us up from restaurant, and then taking us to the airport in the morning.The bistro had good food, Starbucks coffee, reasonably priced. The courtyard looked beautiful with plenty of outdoor seating around the pool.If travelling again thru Houston, I would stay here again. However, I might try a hotel a bit closer to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Stayed one night before flight home. I found the staff to be very nice, our rooms were not quite ready when we arrived. The staff stowed our bags and had the shuttle take us to a restaurant they front desk person recommended.The only problem we had with the shuttle we had about a 40 minute wait from when we called the hotel to when it arrived at the Houston airport. Otherwise, we had no issues with the shuttle taking us to dinner, picking us up from restaurant, and then taking us to the airport in the morning.The bistro had good food, Starbucks coffee, reasonably priced. The courtyard looked beautiful with plenty of outdoor seating around the pool.If travelling again thru Houston, I would stay here again. However, I might try a hotel a bit closer to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r198374992-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198374992</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>One of my Worst Hotels ever</t>
+  </si>
+  <si>
+    <t>This Hotel advertises as being close to the international Airport, False, it is at least a 35-45 min shuttle ride if there is no rush hour traffic. The Shuttle bus runs only each hour on the hour, that means if he just left the Airport you could have an hour and half wait like we did.They advertise an in house restaurant, false, they have a bar near front desk that is sometimes open and serves sandwiches and donuts at a ridiculous price,I was looking to sit in a dinning room after long day of travel and relax and enjoy a nice meal with my wife guess what  the bar was closed and I went to our room and shared a cookie  that my wife brought with her.The next morning we did have  a decent breakfast that the cook who tried his best to prepare and serve us as he was all alone with a dozen others waiting for breakfast, he was the only good thing the Hotel had going for them and I felt sorry for him as he kept apologizing to everyone but he was doing the very best he could.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This Hotel advertises as being close to the international Airport, False, it is at least a 35-45 min shuttle ride if there is no rush hour traffic. The Shuttle bus runs only each hour on the hour, that means if he just left the Airport you could have an hour and half wait like we did.They advertise an in house restaurant, false, they have a bar near front desk that is sometimes open and serves sandwiches and donuts at a ridiculous price,I was looking to sit in a dinning room after long day of travel and relax and enjoy a nice meal with my wife guess what  the bar was closed and I went to our room and shared a cookie  that my wife brought with her.The next morning we did have  a decent breakfast that the cook who tried his best to prepare and serve us as he was all alone with a dozen others waiting for breakfast, he was the only good thing the Hotel had going for them and I felt sorry for him as he kept apologizing to everyone but he was doing the very best he could.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r188406576-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188406576</t>
+  </si>
+  <si>
+    <t>12/23/2013</t>
+  </si>
+  <si>
+    <t>Shuttle Airport Pick-up Needs Work</t>
+  </si>
+  <si>
+    <t>I recently stayed here overnighting between flights from Canada en route to Central America. Upon arriving at Houston airport, I waited about 30 minutes for the shuttle and realized I should have called. My error. I quickly discovered that there is a hospitality phone which directly connects to various hotels, but I was unpleasantly surprised to discover that the Courtyard was not listed. As I did not have a functional cell phone and no American change on hand, I could not call the hotel. So, I was obliged to take a 25$ taxi to the hotel. When I arrived at the hotel, I was agitated, but David at the front desk was very helpful. However, there were some internal communication issues as my husband arrived to meet me there a few hours later on a different flight. The front desk seemed to be completely unaware of this, despite having left these details with them. My husband was treated rather brusquely after he too had spent another $25 for a taxi because of the M.I.A. shuttle. The room was perfectly fine as was the small resto. We found the shuttle issue to be a big problem. It was fine getting us to the airport the next morning, but is unreliable and difficult to access on the way in. Be sure to message the hotel if you require a pick up, and hope that no weather gets in the way of your...I recently stayed here overnighting between flights from Canada en route to Central America. Upon arriving at Houston airport, I waited about 30 minutes for the shuttle and realized I should have called. My error. I quickly discovered that there is a hospitality phone which directly connects to various hotels, but I was unpleasantly surprised to discover that the Courtyard was not listed. As I did not have a functional cell phone and no American change on hand, I could not call the hotel. So, I was obliged to take a 25$ taxi to the hotel. When I arrived at the hotel, I was agitated, but David at the front desk was very helpful. However, there were some internal communication issues as my husband arrived to meet me there a few hours later on a different flight. The front desk seemed to be completely unaware of this, despite having left these details with them. My husband was treated rather brusquely after he too had spent another $25 for a taxi because of the M.I.A. shuttle. The room was perfectly fine as was the small resto. We found the shuttle issue to be a big problem. It was fine getting us to the airport the next morning, but is unreliable and difficult to access on the way in. Be sure to message the hotel if you require a pick up, and hope that no weather gets in the way of your plans, delaying or changing your arrival. Obviously, contacting the hotel is no problem if you have a cell, but often travellers to Houston are not American and may not have a cell plan that is not exorbitant. After $50 in taxi fare to a hotel which claims to have a great shuttle, I was left unimpressed. Booked with booking.com which should have clearly indicated the concrete details about the shuttle. Also, given the many choices of accommodation in Houston, several are much closer to the airport and have regularly scheduled shuttle services. Unfortunately, for us, the math did not work out at all this time aroundMoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed here overnighting between flights from Canada en route to Central America. Upon arriving at Houston airport, I waited about 30 minutes for the shuttle and realized I should have called. My error. I quickly discovered that there is a hospitality phone which directly connects to various hotels, but I was unpleasantly surprised to discover that the Courtyard was not listed. As I did not have a functional cell phone and no American change on hand, I could not call the hotel. So, I was obliged to take a 25$ taxi to the hotel. When I arrived at the hotel, I was agitated, but David at the front desk was very helpful. However, there were some internal communication issues as my husband arrived to meet me there a few hours later on a different flight. The front desk seemed to be completely unaware of this, despite having left these details with them. My husband was treated rather brusquely after he too had spent another $25 for a taxi because of the M.I.A. shuttle. The room was perfectly fine as was the small resto. We found the shuttle issue to be a big problem. It was fine getting us to the airport the next morning, but is unreliable and difficult to access on the way in. Be sure to message the hotel if you require a pick up, and hope that no weather gets in the way of your...I recently stayed here overnighting between flights from Canada en route to Central America. Upon arriving at Houston airport, I waited about 30 minutes for the shuttle and realized I should have called. My error. I quickly discovered that there is a hospitality phone which directly connects to various hotels, but I was unpleasantly surprised to discover that the Courtyard was not listed. As I did not have a functional cell phone and no American change on hand, I could not call the hotel. So, I was obliged to take a 25$ taxi to the hotel. When I arrived at the hotel, I was agitated, but David at the front desk was very helpful. However, there were some internal communication issues as my husband arrived to meet me there a few hours later on a different flight. The front desk seemed to be completely unaware of this, despite having left these details with them. My husband was treated rather brusquely after he too had spent another $25 for a taxi because of the M.I.A. shuttle. The room was perfectly fine as was the small resto. We found the shuttle issue to be a big problem. It was fine getting us to the airport the next morning, but is unreliable and difficult to access on the way in. Be sure to message the hotel if you require a pick up, and hope that no weather gets in the way of your plans, delaying or changing your arrival. Obviously, contacting the hotel is no problem if you have a cell, but often travellers to Houston are not American and may not have a cell plan that is not exorbitant. After $50 in taxi fare to a hotel which claims to have a great shuttle, I was left unimpressed. Booked with booking.com which should have clearly indicated the concrete details about the shuttle. Also, given the many choices of accommodation in Houston, several are much closer to the airport and have regularly scheduled shuttle services. Unfortunately, for us, the math did not work out at all this time aroundMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r182687119-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>182687119</t>
+  </si>
+  <si>
+    <t>10/28/2013</t>
+  </si>
+  <si>
+    <t>Friendly folks</t>
+  </si>
+  <si>
+    <t>We booked this hotel for three rooms, during a business trip to Houston.  The front desk people, especially David, were very friendly and made sure we were well taken care of.  The hotel is very clean, and the rooms very clean and quiet.  Good for working in your room if necessary.  Only complaint was coffee in the AM was on the weak side, could have been better.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r181976072-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181976072</t>
+  </si>
+  <si>
+    <t>10/22/2013</t>
+  </si>
+  <si>
+    <t>Convenient, Clean and Comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the area I need to be at, and the price of the hotel is generally very competitive. Very clean rooms and competent staff. August is hot in Houston, and the a/c was powerful and quiet. Free parking is a plus. Thanks! </t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r168472282-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168472282</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Gets the Job Done</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard Marriott near IAH for one night while in transit to Mexico City.  It is a standard Courtyard, and looks like they may have done a “once over” recently.  We arrived fairly late, right before 12am, and were surprised to find the shuttle stops operating at midnight!  This is a little strange as it isn’t unusual to arrive at that time of night, and I have never encountered this with other hotels in the area.  The other problem with their shuttle service is that it runs hourly, so you better hope you get a seat when trying to go to the airport from the hotel.  The check-in was seamless and our room was clean, good AC, functioning bathroom, and comfy beds.  Overall the hotel served our needs as transit passengers.  The breakfast is a bistro counter where you must purchase everything.  No continental breakfast.  I don’t stay at Courtyards often so this may be pretty standard, but at least coffee would have been nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>We stayed at the Courtyard Marriott near IAH for one night while in transit to Mexico City.  It is a standard Courtyard, and looks like they may have done a “once over” recently.  We arrived fairly late, right before 12am, and were surprised to find the shuttle stops operating at midnight!  This is a little strange as it isn’t unusual to arrive at that time of night, and I have never encountered this with other hotels in the area.  The other problem with their shuttle service is that it runs hourly, so you better hope you get a seat when trying to go to the airport from the hotel.  The check-in was seamless and our room was clean, good AC, functioning bathroom, and comfy beds.  Overall the hotel served our needs as transit passengers.  The breakfast is a bistro counter where you must purchase everything.  No continental breakfast.  I don’t stay at Courtyards often so this may be pretty standard, but at least coffee would have been nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r165468318-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165468318</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>SUPERIOR SHUTTLE SERVICE</t>
+  </si>
+  <si>
+    <t>We live in Conroe  - about 45 min from IAH (without traffic problems).  Since we were flying out early on a Friday, decided to try this hotel and see how the shuttle worked.  I believe the times are every hour on the hour from 5 am to midnight.  Our driver was very helpful with luggage both when we left and on the pickp up.  We were concerned that we might have a wait for pick up, but she left the hotel as soon as we called (no reservations for pick up, you have to call when you return).  So, we only had about a 15 min wait and saved the airport parking, plus not having to get up in the middle of the night, concerned about traffic.  The property has a night watchman and apparently Couryard and Residence Inn (next door) are owned by the same company.  We knew breakfast is not free at Courtyard, but even if it was, we left too early for any breakfast.  I would recommend this hotel highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>We live in Conroe  - about 45 min from IAH (without traffic problems).  Since we were flying out early on a Friday, decided to try this hotel and see how the shuttle worked.  I believe the times are every hour on the hour from 5 am to midnight.  Our driver was very helpful with luggage both when we left and on the pickp up.  We were concerned that we might have a wait for pick up, but she left the hotel as soon as we called (no reservations for pick up, you have to call when you return).  So, we only had about a 15 min wait and saved the airport parking, plus not having to get up in the middle of the night, concerned about traffic.  The property has a night watchman and apparently Couryard and Residence Inn (next door) are owned by the same company.  We knew breakfast is not free at Courtyard, but even if it was, we left too early for any breakfast.  I would recommend this hotel highly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r164936009-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164936009</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>Basic, all you need for a quick stopover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for one night prior to leaving for home the following day. Staff were friendly and the room was clean and comfortable. Did not use the pool.My only negative comment would be the breakfast arrangements. Everything was purchased at an individual price and was difficult to follow. I can imagine on a busy morning this would be chaotic and cause delay for travellers. </t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r154248926-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154248926</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Hit or Miss</t>
+  </si>
+  <si>
+    <t>The good: The room was clean &amp; the driver from the airport was very nice and friendly.  He offered to take us to close restaurants - great touch.   There is a nice little cafe in the lobby for some cooked food in the morning or even cooked food late night.The bad: I thought breakfast was free at courtyards - I guess not this one.  The courtyard shuttle took 30 mins to pick us up; Must be only 1 shuttle.  After waiting for the shuttle 30 mins, and then driving 10-15 to the Courtyard, the check in clerk was not there.  We had 5 people/families from the airport, and she was not there.   She did not come out of her hiding place even when we rang the bell.  We finally had someone at the cafe go find her out back (must have been too busy on facebook,  texting, or just playing hide-and-go-seek with us).I would have given service 1 star if not for the driver and the morning cook.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The good: The room was clean &amp; the driver from the airport was very nice and friendly.  He offered to take us to close restaurants - great touch.   There is a nice little cafe in the lobby for some cooked food in the morning or even cooked food late night.The bad: I thought breakfast was free at courtyards - I guess not this one.  The courtyard shuttle took 30 mins to pick us up; Must be only 1 shuttle.  After waiting for the shuttle 30 mins, and then driving 10-15 to the Courtyard, the check in clerk was not there.  We had 5 people/families from the airport, and she was not there.   She did not come out of her hiding place even when we rang the bell.  We finally had someone at the cafe go find her out back (must have been too busy on facebook,  texting, or just playing hide-and-go-seek with us).I would have given service 1 star if not for the driver and the morning cook.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r150422546-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150422546</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>A notch below my standard Courtyard experiences</t>
+  </si>
+  <si>
+    <t>Stayed one night at this hotel.  Internet worked well and service was friendly.  I was not thrilled with the room (322) as I had a room that adjoined to the one next to it, and had a restless night due to the noise.  The air and ground traffic I could hear outside was refreshing compared to the tv and hacking of the gentleman next door to me.  Being late, I did not call the front desk to be moved; however, I have no doubt that with the level of service I experienced at check in, that it would have been addressed.  My room did have a balcony.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>CourtyardHoustonIAH, Manager at Courtyard Houston North, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Stayed one night at this hotel.  Internet worked well and service was friendly.  I was not thrilled with the room (322) as I had a room that adjoined to the one next to it, and had a restless night due to the noise.  The air and ground traffic I could hear outside was refreshing compared to the tv and hacking of the gentleman next door to me.  Being late, I did not call the front desk to be moved; however, I have no doubt that with the level of service I experienced at check in, that it would have been addressed.  My room did have a balcony.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r145083686-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145083686</t>
+  </si>
+  <si>
+    <t>11/10/2012</t>
+  </si>
+  <si>
+    <t>Very Nice Place!</t>
+  </si>
+  <si>
+    <t>Very nice hotel. I went because I had an interview for United Airlines. Although it was in an office park/industrial area, which doesn't bother me any, it was a nice place to stay. Very clean and well-maintained. The rooms, lobby, hallways, and grounds are very-well taken care of, and I would stay there again for sure.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r139275486-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139275486</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Clean and Accomodating</t>
+  </si>
+  <si>
+    <t>Stayed for business and found it to be clean and comfortable.  The area itself is a bit rough, but the staff were great.  You have to go far to find a good restaurant or to get into town, but it was close to the business we were tending too.  We moved to this site from the Marriott behind this property..which was old and smelled bad.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r136842812-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136842812</t>
+  </si>
+  <si>
+    <t>08/10/2012</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Stayed here for one night, nice hotel, clean room, clean bathroom and that's all im asking for. Only downside?... location, not a single restaurant close by and at nite when your you are starving its disappointing. but other than that everything was good.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r133913204-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133913204</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel for a business trip and was not disappointed.  The TV quit working in my room and they quickly gave me a new room and 10,000 points for the inconvience.  The small bistro was good and a nice break at the end of the day.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r130971712-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>130971712</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>Great Experience, After a Small Customer Service Problem</t>
+  </si>
+  <si>
+    <t>This hotel was nice - friendly and helpful front desk staff, clean rooms, good features in the room. Although I did not use the cafe in the hotel, it looked like it offered decent meals/snacks. The lobby was modern and clean. I did encounter problems with customer service because I went through Priceline. According to Priceline's policies, you are supposed to call the hotel directly to request either a king bed or two queen beds. When I did this, they told me to call Priceline and that they would charge me more. I ended up having to contact their company's customer service department to get this resolved to my satisfaction. After that, however, my experience at the hotel was great. Regarding the area, there isn't much to eat or see in the area. You stay here for the proximity to the airport rather than proximity to anything else.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>This hotel was nice - friendly and helpful front desk staff, clean rooms, good features in the room. Although I did not use the cafe in the hotel, it looked like it offered decent meals/snacks. The lobby was modern and clean. I did encounter problems with customer service because I went through Priceline. According to Priceline's policies, you are supposed to call the hotel directly to request either a king bed or two queen beds. When I did this, they told me to call Priceline and that they would charge me more. I ended up having to contact their company's customer service department to get this resolved to my satisfaction. After that, however, my experience at the hotel was great. Regarding the area, there isn't much to eat or see in the area. You stay here for the proximity to the airport rather than proximity to anything else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r126453655-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126453655</t>
+  </si>
+  <si>
+    <t>03/21/2012</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>OK location, a bit further from IAH than one would like. The area is also in a bad area of the Houston Metro called Greenspoint or as locals call it "Gunspoint".There is security in the parking lot. The room are laid out a bit funky and they rooms have very very heavy doors, wonder why? There is nothing within walking distance to eat or pick up a forgotten item.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r125359894-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125359894</t>
+  </si>
+  <si>
+    <t>02/28/2012</t>
+  </si>
+  <si>
+    <t>Not great, not horrible</t>
+  </si>
+  <si>
+    <t>This is one of dozens of Marriott’s I have stayed in.  Its pretty run of the mill or up to par for their chain.  Rooms are clean, decent staff.  Overall no complaints about the hotel.Finding a place to eat is something else however.  The hotel is tucked into a business district which is both good and bad.  Traffic in front of the hotel is light but you have to drive to find something to eat.  Unless you’re accustom to paying a taxi I wouldn’t stay here without a rental car or other means of travel.It is also very close to a highway.  For some this isn’t a deal breaker but there are very few rooms that shield you from the highway traffic.  I was able to drown out the noise with the 'On' fan feature in the rooms HVAC.  Fine stay for business travel but nothing extraordinary.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>CourtyardIAH_GM, General Manager at Courtyard Houston North, responded to this reviewResponded March 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2012</t>
+  </si>
+  <si>
+    <t>This is one of dozens of Marriott’s I have stayed in.  Its pretty run of the mill or up to par for their chain.  Rooms are clean, decent staff.  Overall no complaints about the hotel.Finding a place to eat is something else however.  The hotel is tucked into a business district which is both good and bad.  Traffic in front of the hotel is light but you have to drive to find something to eat.  Unless you’re accustom to paying a taxi I wouldn’t stay here without a rental car or other means of travel.It is also very close to a highway.  For some this isn’t a deal breaker but there are very few rooms that shield you from the highway traffic.  I was able to drown out the noise with the 'On' fan feature in the rooms HVAC.  Fine stay for business travel but nothing extraordinary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r101505908-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>101505908</t>
+  </si>
+  <si>
+    <t>03/25/2011</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Price is very reasonable, service in the breakfast area was outstanding.  Room is quite basic but good for the price of the room and clean enough.</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r94138229-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>94138229</t>
+  </si>
+  <si>
+    <t>01/23/2011</t>
+  </si>
+  <si>
+    <t>Great service for Tired Travellers.</t>
+  </si>
+  <si>
+    <t>We stayed here as a total fluke on the way home from a family vacation.   Due to snow we got stuck in Houston overnight on a layover, we walk outside and got on the first airport shuttle bus that would take us,  knowing that Courtyard by Marriott's are consistantly clean and afforadble (there were 8 of us). The rooms were exactly what we expected. I did not hear any of this noise that others speak of in their reviews.  We all slept great. Where the hotel really went above and beyond was in the service.   They offered the airport shuttle to take us to and from a great mexican restaurant they recommended 10 minutes up the road.  It saved us close to $100 in cabs, plus having to wait for them. Chris the manager also was great.   I accidentally left my SLR camera in the hotel room,  after realizing it on the airplane, I called and Chris who was very kind about it and  immediatlly went up to the room, found my camera and fedex-ed it to me at my house.  This is a great hotel for the weary traveller.  If you have a late night arrival or an early flight out., I would totally suggest spending the night here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>CourtyardIAH_GM, General Manager at Courtyard Houston North, responded to this reviewResponded January 24, 2011</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2011</t>
+  </si>
+  <si>
+    <t>We stayed here as a total fluke on the way home from a family vacation.   Due to snow we got stuck in Houston overnight on a layover, we walk outside and got on the first airport shuttle bus that would take us,  knowing that Courtyard by Marriott's are consistantly clean and afforadble (there were 8 of us). The rooms were exactly what we expected. I did not hear any of this noise that others speak of in their reviews.  We all slept great. Where the hotel really went above and beyond was in the service.   They offered the airport shuttle to take us to and from a great mexican restaurant they recommended 10 minutes up the road.  It saved us close to $100 in cabs, plus having to wait for them. Chris the manager also was great.   I accidentally left my SLR camera in the hotel room,  after realizing it on the airplane, I called and Chris who was very kind about it and  immediatlly went up to the room, found my camera and fedex-ed it to me at my house.  This is a great hotel for the weary traveller.  If you have a late night arrival or an early flight out., I would totally suggest spending the night here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r81122544-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>81122544</t>
+  </si>
+  <si>
+    <t>09/26/2010</t>
+  </si>
+  <si>
+    <t>Average airport hotel</t>
+  </si>
+  <si>
+    <t>Stayed here back in November 2009 on my way to Tokyo and was pretty effecient. Called the hotel for airport pick-up and waited about 20 minutes for the transport. Oddly enough, the person driving was the actual hotel manager. I was provided with a room far from the elevator on the second floor which made it pretty quiet. Unfortunately, this hotel is in the middle of nowhere. the hotel was kind enough to provide transport to local eateries since the restaurant only provided breakfast which was fine by me. I had a room with a king size bed and it was pretty comfortable... room was tidy, neat and clean.</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r13206570-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>13206570</t>
+  </si>
+  <si>
+    <t>02/02/2008</t>
+  </si>
+  <si>
+    <t>Needs some work</t>
+  </si>
+  <si>
+    <t>For a hotel that should appeal to business travellers because it was 'designed' by business travellers, it doesn't.This hotel hasn't been upgraded since it opened which was obviously several years ago.My room was a bit worn.  The bed was not soft and comfy like the more newly upgraded hotels are.  It was stiff and firm.The bathroom was worn and my toilet didn't work very well.But the staff was very nice.  There is a complimentary hotel shuttle and the two shuttle drivers I had were very, very informative and entertaining.The lobby where they serve free breakfast (a BIG plus) was very nice and the pool looked like kids would love it.There's a Rick's Cabaret just one block away across the street (if you are into that kind of stuff).And, there's a Residence Inn right next door where I'd probably stay next time if I needed to unless I knew this hotel had spiffed up the guest rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>For a hotel that should appeal to business travellers because it was 'designed' by business travellers, it doesn't.This hotel hasn't been upgraded since it opened which was obviously several years ago.My room was a bit worn.  The bed was not soft and comfy like the more newly upgraded hotels are.  It was stiff and firm.The bathroom was worn and my toilet didn't work very well.But the staff was very nice.  There is a complimentary hotel shuttle and the two shuttle drivers I had were very, very informative and entertaining.The lobby where they serve free breakfast (a BIG plus) was very nice and the pool looked like kids would love it.There's a Rick's Cabaret just one block away across the street (if you are into that kind of stuff).And, there's a Residence Inn right next door where I'd probably stay next time if I needed to unless I knew this hotel had spiffed up the guest rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r8102538-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8102538</t>
+  </si>
+  <si>
+    <t>07/10/2007</t>
+  </si>
+  <si>
+    <t>Perfectly fine hotel</t>
+  </si>
+  <si>
+    <t>I am a woman who travels frequently by myself and don't expect much from airport hotels, but this was a clean, comfortable and safe stay.  while it isn't the closest hotel to IAH, it's a quick 10 minute drive although a little difficult to find.  It has free parking, free airport shuttle, security, quick check in, comfortable beds with white duvet covers which i like because you can quickly spot any yucky stains, and spacious rooms.  there are window a/c units -- but i didn't find it unusually loud and usually prefer this type ac at an airport hotel as they help drown airplane noise.  the hotel is currently being renovated but i stayed on a Sunday night so can't report on any interruptions or noise from that.  I'd stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>I am a woman who travels frequently by myself and don't expect much from airport hotels, but this was a clean, comfortable and safe stay.  while it isn't the closest hotel to IAH, it's a quick 10 minute drive although a little difficult to find.  It has free parking, free airport shuttle, security, quick check in, comfortable beds with white duvet covers which i like because you can quickly spot any yucky stains, and spacious rooms.  there are window a/c units -- but i didn't find it unusually loud and usually prefer this type ac at an airport hotel as they help drown airplane noise.  the hotel is currently being renovated but i stayed on a Sunday night so can't report on any interruptions or noise from that.  I'd stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r2446488-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>2446488</t>
+  </si>
+  <si>
+    <t>08/12/2004</t>
+  </si>
+  <si>
+    <t>Check in if you like noisy rooms</t>
+  </si>
+  <si>
+    <t>Had a very short visit to this hotel. I was coming into Houston to stay with a friend, but since my plane was arriving late at night and I also had to rent a car, I decided to book a hotel room near the airport for one night, then leasurely head into town the next day.
+Got a good deal, maybe because of the last minute reservation (the same day), or maybe because it was Saturday night.
+Didn't try any of the hotel's facilities, just the room. Check-in was swift (not too many people checking in at 1am!). Judging from the parking lot the hotel was far from full, yet I was given a room right next to the equipment room. Too tired to complain.
+Spacious room. The room was hot - the A/C was not running in the room. Tried the controls on the wall but couldn't get the cool air flowing. Called the front desk and was informed that the wall controls actually don't control much; the room has a window unit and the controls are directly on it. Opened the little door to reveal two unmarked knobs. A few test turns that one controls the fan speed. The other must be for temp; kept it the way it was and cooling begun.
+Ready for bed. Comfortable pillows. But the A/C unit is VERY noisy, with occasional rattling sounds. Luckily for me I was tired enough to fall...Had a very short visit to this hotel. I was coming into Houston to stay with a friend, but since my plane was arriving late at night and I also had to rent a car, I decided to book a hotel room near the airport for one night, then leasurely head into town the next day.Got a good deal, maybe because of the last minute reservation (the same day), or maybe because it was Saturday night.Didn't try any of the hotel's facilities, just the room. Check-in was swift (not too many people checking in at 1am!). Judging from the parking lot the hotel was far from full, yet I was given a room right next to the equipment room. Too tired to complain.Spacious room. The room was hot - the A/C was not running in the room. Tried the controls on the wall but couldn't get the cool air flowing. Called the front desk and was informed that the wall controls actually don't control much; the room has a window unit and the controls are directly on it. Opened the little door to reveal two unmarked knobs. A few test turns that one controls the fan speed. The other must be for temp; kept it the way it was and cooling begun.Ready for bed. Comfortable pillows. But the A/C unit is VERY noisy, with occasional rattling sounds. Luckily for me I was tired enough to fall asleep, but not without ten or fifteen minutes of tossing.Woke up the next morning. Very basic shower. It works fine, and that counts for a lot. The hotel provided shampoo only. The soap bar in the shower was used - first time it happens to me in 15 years of travel. The one near the sink was new and I used that one.Check out was also swift.I wouldn't stay there again - I think the hotel's management could have put me in a better room from the very begining, the hotel being mostly empty. Even so, while room location and amenities are things that can be resolved, the old A/C units are too noisy, even for watching TV. Will try another hotel next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a very short visit to this hotel. I was coming into Houston to stay with a friend, but since my plane was arriving late at night and I also had to rent a car, I decided to book a hotel room near the airport for one night, then leasurely head into town the next day.
+Got a good deal, maybe because of the last minute reservation (the same day), or maybe because it was Saturday night.
+Didn't try any of the hotel's facilities, just the room. Check-in was swift (not too many people checking in at 1am!). Judging from the parking lot the hotel was far from full, yet I was given a room right next to the equipment room. Too tired to complain.
+Spacious room. The room was hot - the A/C was not running in the room. Tried the controls on the wall but couldn't get the cool air flowing. Called the front desk and was informed that the wall controls actually don't control much; the room has a window unit and the controls are directly on it. Opened the little door to reveal two unmarked knobs. A few test turns that one controls the fan speed. The other must be for temp; kept it the way it was and cooling begun.
+Ready for bed. Comfortable pillows. But the A/C unit is VERY noisy, with occasional rattling sounds. Luckily for me I was tired enough to fall...Had a very short visit to this hotel. I was coming into Houston to stay with a friend, but since my plane was arriving late at night and I also had to rent a car, I decided to book a hotel room near the airport for one night, then leasurely head into town the next day.Got a good deal, maybe because of the last minute reservation (the same day), or maybe because it was Saturday night.Didn't try any of the hotel's facilities, just the room. Check-in was swift (not too many people checking in at 1am!). Judging from the parking lot the hotel was far from full, yet I was given a room right next to the equipment room. Too tired to complain.Spacious room. The room was hot - the A/C was not running in the room. Tried the controls on the wall but couldn't get the cool air flowing. Called the front desk and was informed that the wall controls actually don't control much; the room has a window unit and the controls are directly on it. Opened the little door to reveal two unmarked knobs. A few test turns that one controls the fan speed. The other must be for temp; kept it the way it was and cooling begun.Ready for bed. Comfortable pillows. But the A/C unit is VERY noisy, with occasional rattling sounds. Luckily for me I was tired enough to fall asleep, but not without ten or fifteen minutes of tossing.Woke up the next morning. Very basic shower. It works fine, and that counts for a lot. The hotel provided shampoo only. The soap bar in the shower was used - first time it happens to me in 15 years of travel. The one near the sink was new and I used that one.Check out was also swift.I wouldn't stay there again - I think the hotel's management could have put me in a better room from the very begining, the hotel being mostly empty. Even so, while room location and amenities are things that can be resolved, the old A/C units are too noisy, even for watching TV. Will try another hotel next time.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1868,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1900,3744 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>115</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>175</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>175</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>175</v>
+      </c>
+      <c r="O18" t="s">
+        <v>192</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>202</v>
+      </c>
+      <c r="X19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>207</v>
+      </c>
+      <c r="K20" t="s">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s">
+        <v>209</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+      <c r="J22" t="s">
+        <v>207</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>211</v>
+      </c>
+      <c r="X22" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>224</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>225</v>
+      </c>
+      <c r="J23" t="s">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s">
+        <v>228</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>230</v>
+      </c>
+      <c r="X23" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>234</v>
+      </c>
+      <c r="J24" t="s">
+        <v>235</v>
+      </c>
+      <c r="K24" t="s">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s">
+        <v>237</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>229</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>238</v>
+      </c>
+      <c r="X24" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>229</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>245</v>
+      </c>
+      <c r="X25" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>251</v>
+      </c>
+      <c r="L26" t="s">
+        <v>252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>253</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>254</v>
+      </c>
+      <c r="X26" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" t="s">
+        <v>259</v>
+      </c>
+      <c r="K27" t="s">
+        <v>260</v>
+      </c>
+      <c r="L27" t="s">
+        <v>261</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>253</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>253</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>268</v>
+      </c>
+      <c r="X30" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>285</v>
+      </c>
+      <c r="J31" t="s">
+        <v>286</v>
+      </c>
+      <c r="K31" t="s">
+        <v>287</v>
+      </c>
+      <c r="L31" t="s">
+        <v>288</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>289</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>290</v>
+      </c>
+      <c r="X31" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="K32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32" t="s">
+        <v>297</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>298</v>
+      </c>
+      <c r="O32" t="s">
+        <v>192</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>299</v>
+      </c>
+      <c r="X32" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>303</v>
+      </c>
+      <c r="J33" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" t="s">
+        <v>305</v>
+      </c>
+      <c r="L33" t="s">
+        <v>306</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>298</v>
+      </c>
+      <c r="O33" t="s">
+        <v>115</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>308</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>309</v>
+      </c>
+      <c r="J34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K34" t="s">
+        <v>311</v>
+      </c>
+      <c r="L34" t="s">
+        <v>312</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>314</v>
+      </c>
+      <c r="X34" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>317</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>318</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+      <c r="K35" t="s">
+        <v>320</v>
+      </c>
+      <c r="L35" t="s">
+        <v>321</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>322</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>323</v>
+      </c>
+      <c r="X35" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" t="s">
+        <v>328</v>
+      </c>
+      <c r="K36" t="s">
+        <v>329</v>
+      </c>
+      <c r="L36" t="s">
+        <v>330</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>331</v>
+      </c>
+      <c r="O36" t="s">
+        <v>332</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>334</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>335</v>
+      </c>
+      <c r="J37" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" t="s">
+        <v>337</v>
+      </c>
+      <c r="L37" t="s">
+        <v>338</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>339</v>
+      </c>
+      <c r="O37" t="s">
+        <v>192</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>347</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J39" t="s">
+        <v>349</v>
+      </c>
+      <c r="K39" t="s">
+        <v>350</v>
+      </c>
+      <c r="L39" t="s">
+        <v>351</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>352</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>354</v>
+      </c>
+      <c r="J40" t="s">
+        <v>355</v>
+      </c>
+      <c r="K40" t="s">
+        <v>356</v>
+      </c>
+      <c r="L40" t="s">
+        <v>357</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" t="s">
+        <v>115</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>364</v>
+      </c>
+      <c r="O41" t="s">
+        <v>192</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>366</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>367</v>
+      </c>
+      <c r="J42" t="s">
+        <v>368</v>
+      </c>
+      <c r="K42" t="s">
+        <v>369</v>
+      </c>
+      <c r="L42" t="s">
+        <v>370</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>364</v>
+      </c>
+      <c r="O42" t="s">
+        <v>192</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>373</v>
+      </c>
+      <c r="J43" t="s">
+        <v>374</v>
+      </c>
+      <c r="K43" t="s">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s">
+        <v>376</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>377</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" t="s">
+        <v>380</v>
+      </c>
+      <c r="K44" t="s">
+        <v>381</v>
+      </c>
+      <c r="L44" t="s">
+        <v>382</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>383</v>
+      </c>
+      <c r="O44" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>385</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>386</v>
+      </c>
+      <c r="J45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K45" t="s">
+        <v>388</v>
+      </c>
+      <c r="L45" t="s">
+        <v>389</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>390</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>391</v>
+      </c>
+      <c r="X45" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>394</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>395</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+      <c r="K46" t="s">
+        <v>397</v>
+      </c>
+      <c r="L46" t="s">
+        <v>398</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>399</v>
+      </c>
+      <c r="O46" t="s">
+        <v>115</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>400</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>401</v>
+      </c>
+      <c r="J47" t="s">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s">
+        <v>404</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>405</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>406</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>407</v>
+      </c>
+      <c r="J48" t="s">
+        <v>408</v>
+      </c>
+      <c r="K48" t="s">
+        <v>409</v>
+      </c>
+      <c r="L48" t="s">
+        <v>410</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>405</v>
+      </c>
+      <c r="O48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>411</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>412</v>
+      </c>
+      <c r="J49" t="s">
+        <v>413</v>
+      </c>
+      <c r="K49" t="s">
+        <v>409</v>
+      </c>
+      <c r="L49" t="s">
+        <v>414</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>415</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>416</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>417</v>
+      </c>
+      <c r="J50" t="s">
+        <v>418</v>
+      </c>
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="L50" t="s">
+        <v>420</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>421</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>423</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>424</v>
+      </c>
+      <c r="J51" t="s">
+        <v>425</v>
+      </c>
+      <c r="K51" t="s">
+        <v>426</v>
+      </c>
+      <c r="L51" t="s">
+        <v>427</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>428</v>
+      </c>
+      <c r="O51" t="s">
+        <v>62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>429</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>430</v>
+      </c>
+      <c r="J52" t="s">
+        <v>431</v>
+      </c>
+      <c r="K52" t="s">
+        <v>432</v>
+      </c>
+      <c r="L52" t="s">
+        <v>433</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>434</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>435</v>
+      </c>
+      <c r="X52" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>438</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>439</v>
+      </c>
+      <c r="J53" t="s">
+        <v>440</v>
+      </c>
+      <c r="K53" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>443</v>
+      </c>
+      <c r="O53" t="s">
+        <v>62</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>444</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>445</v>
+      </c>
+      <c r="J54" t="s">
+        <v>446</v>
+      </c>
+      <c r="K54" t="s">
+        <v>447</v>
+      </c>
+      <c r="L54" t="s">
+        <v>448</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>449</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>450</v>
+      </c>
+      <c r="X54" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>453</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>454</v>
+      </c>
+      <c r="J55" t="s">
+        <v>455</v>
+      </c>
+      <c r="K55" t="s">
+        <v>456</v>
+      </c>
+      <c r="L55" t="s">
+        <v>457</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>458</v>
+      </c>
+      <c r="O55" t="s">
+        <v>115</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>460</v>
+      </c>
+      <c r="J56" t="s">
+        <v>461</v>
+      </c>
+      <c r="K56" t="s">
+        <v>462</v>
+      </c>
+      <c r="L56" t="s">
+        <v>463</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>464</v>
+      </c>
+      <c r="O56" t="s">
+        <v>62</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>466</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>467</v>
+      </c>
+      <c r="J57" t="s">
+        <v>468</v>
+      </c>
+      <c r="K57" t="s">
+        <v>469</v>
+      </c>
+      <c r="L57" t="s">
+        <v>470</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>471</v>
+      </c>
+      <c r="O57" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>473</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>474</v>
+      </c>
+      <c r="J58" t="s">
+        <v>475</v>
+      </c>
+      <c r="K58" t="s">
+        <v>476</v>
+      </c>
+      <c r="L58" t="s">
+        <v>477</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_148.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_148.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="737">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/08/2018</t>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r600223571-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223143</t>
+  </si>
+  <si>
+    <t>600223571</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>The staff was everything</t>
+  </si>
+  <si>
+    <t>I have allergies and immediately I started sneezing.  The halls and room or heavily deodorized, It made me question if this hotel may have been impacted by the hurricane last year. I don’t know, I didn’t ask. I only stayed for one night, but the lady that checked me in was so endearing to me as if she knew me. If it wasn’t for her I probably would’ve raised an issue about the room. But she charmed me so much I felt like we were friends and I want to cause her any stress. I know it sounds crazy but overall the bed was comfy, the price was right, and I made a new friend that I’ll probably never see again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>martha h, Manager at Courtyard Houston North, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I have allergies and immediately I started sneezing.  The halls and room or heavily deodorized, It made me question if this hotel may have been impacted by the hurricane last year. I don’t know, I didn’t ask. I only stayed for one night, but the lady that checked me in was so endearing to me as if she knew me. If it wasn’t for her I probably would’ve raised an issue about the room. But she charmed me so much I felt like we were friends and I want to cause her any stress. I know it sounds crazy but overall the bed was comfy, the price was right, and I made a new friend that I’ll probably never see again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r597629866-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>597629866</t>
+  </si>
+  <si>
+    <t>07/19/2018</t>
+  </si>
+  <si>
+    <t>GREAT ACCOMODATING STAFF</t>
+  </si>
+  <si>
+    <t>Being recently relocated to Houston, I couldn't have asked for a better 1st impression to help get acclimated to Houston. Thank you to the entire staff at Courtyard Marriot with Special Thanks to Ellisse, Alyne and Carla, who have gone out of their way to accomodate me and make me feel like home. Room service is great, the rooms are very clean and the location is very easily accessable to getting on freeways. All things considered 5 STARS!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Being recently relocated to Houston, I couldn't have asked for a better 1st impression to help get acclimated to Houston. Thank you to the entire staff at Courtyard Marriot with Special Thanks to Ellisse, Alyne and Carla, who have gone out of their way to accomodate me and make me feel like home. Room service is great, the rooms are very clean and the location is very easily accessable to getting on freeways. All things considered 5 STARS!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r576975893-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223143</t>
-  </si>
-  <si>
     <t>576975893</t>
   </si>
   <si>
@@ -177,9 +228,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Carla R, Manager at Courtyard Houston North, responded to this reviewResponded May 2, 2018</t>
   </si>
   <si>
@@ -204,9 +252,6 @@
     <t>The Courtyard is typical with it's settings in the lobby, but you would expect the rooms to be a little more bigger for the price.  I mean, I've stayed in Holiday Inn's that would put this place to shame.  The bistro is a nice touch to get a snack, but nothing fancy with this one.  The customer service is fantastic and the amenities are about the same you would find in any other hotel.  For a week stay, it was a little cramped, but for a night or two, then you should be just fine.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded April 22, 2018</t>
   </si>
   <si>
@@ -243,6 +288,60 @@
     <t>I am writing as I am in my 2nd night of a 3 night stay.  The first room we got smelled terribly of cigarettes, the front desk quickly gave me another room.  That night I noticed a bunch of live bugs crawling in the bathroom light.  I waited until morning and told the front desk.  They said do you want to change rooms, I said no we are unpacked just spray the room while we are out today.  Well I'm back and the bugs are still alive up there.  I can't go back because my child is sleeping. We were out all day and they didn't fix the problem.  The good thing about the hotel is the entire staff has been super friendly.  IMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r563778299-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563778299</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>it is a nice hotel located in the north part of the city, the employees are nice and friendly to the customer, the furniture is very good, regarding the prices I believe it is high a pit .. if I visit Houston again I may think of reserving in the same hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded March 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2018</t>
+  </si>
+  <si>
+    <t>it is a nice hotel located in the north part of the city, the employees are nice and friendly to the customer, the furniture is very good, regarding the prices I believe it is high a pit .. if I visit Houston again I may think of reserving in the same hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r547660690-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547660690</t>
+  </si>
+  <si>
+    <t>12/17/2017</t>
+  </si>
+  <si>
+    <t>Convenient to IAH</t>
+  </si>
+  <si>
+    <t>I stayed here mainly because of a low free-night redemption rate on offer from Marriott and the airport shuttle. The hotel itself is typical Courtyard and located on a busy freeway near IAH, but the rooms are spacious and include a comfy bed, easy chair, desk and a separate toilet/shower and sink area.The staff, who were incredibly friendly (especially the van drivers), gave me a free goodie bag (water, chips) on arrival and a free Starbucks in the morning. Overall, I'd stay again for free or a fairly low rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>martha h, Manager at Courtyard Houston North, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here mainly because of a low free-night redemption rate on offer from Marriott and the airport shuttle. The hotel itself is typical Courtyard and located on a busy freeway near IAH, but the rooms are spacious and include a comfy bed, easy chair, desk and a separate toilet/shower and sink area.The staff, who were incredibly friendly (especially the van drivers), gave me a free goodie bag (water, chips) on arrival and a free Starbucks in the morning. Overall, I'd stay again for free or a fairly low rate.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r546904718-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -258,9 +357,6 @@
     <t>We stayed at this hotel as it was close to Houston International Airport and close to our meeting locations.The staff are super friendly and I was able to check in super early as I had an earlier flight, so that was a bonus. They also offer a free shuttle so I simply called upon disembarking and they sent a shuttle, which arrived within 15min.My double queen room was very clean and roomy. Modern decor, ample lighting and located on first floor. Fridge, microwave, large flat screen tv, coffee maker, etc. The fridge door was a little hinky but not a big issue.  Beds are comfortable with plenty of large pillows.Lobby offers complimentary coffee, small sundries shop, business computers and printers, Bistro with limited menu for breakfast and dinner. The hotel also offers a free shuttle service for local restaurants and they provide a list of restaurants that are within 6miles of the hotel. There are maybe 3 places within walking distance but because of the roads and highways, it's not that simple to walk to. So, as there is not a lot in the immediate vicinity, if you don't have a car, the free shuttle is quite handy. I'd definitely stay here again and it looks like many people feel that way as one of my colleague s was unable to book a room for the night because it was full. MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>martha h, Guest Relations Manager at Courtyard Houston North, responded to this reviewResponded December 13, 2017</t>
   </si>
   <si>
@@ -321,6 +417,57 @@
     <t>The hotel is ok, good enough to get some sleep and has basic essentials like laundry, fitness center, internet, and lobby bistro/bar.  It was clean for the most part.  Good for a business trip where all you care about is a bed to sleep, clean shower, and internet access.The toilet in my room ran all night and I had to shut off the water to the toilet so I could sleep.  The front desk said the maintenance guy left for the day and they couldn't do anything about it.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r499669263-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499669263</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Accommodating place</t>
+  </si>
+  <si>
+    <t>We stayed here. The second we walked in the door you could tell they aim to please in this hotel. We actually slept from early afternoon till morning. We heard no noise except the nice needed a/c. In the morning, we looked around the place and they had a very pleasant common area with books. It's far from the airport, but that seems consistent with most of the airport hotels at IAH. It's an older property, but clean and being reinstated. MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>We stayed here. The second we walked in the door you could tell they aim to please in this hotel. We actually slept from early afternoon till morning. We heard no noise except the nice needed a/c. In the morning, we looked around the place and they had a very pleasant common area with books. It's far from the airport, but that seems consistent with most of the airport hotels at IAH. It's an older property, but clean and being reinstated. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r499136634-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499136634</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Frustration!</t>
+  </si>
+  <si>
+    <t>While the staff is very pleasant and the décor is fine, they are totally in disarray on the administrative side! Cant ever see myself staying there again! I guess if you have no issues, Ok...but I am still trying to resolve a billing issue from December. Stayed there again in May...my billing was a total mess, never actually got an answer on my questions...but I figured it out for my expense reports(I hope). Asked to meet with the manager twice when I was there and she blew me off. sent numerous emails and received half-hearted responses. Hopefully corporate will help me...but who has time to be chasing?????MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>martha h, Manager at Courtyard Houston North, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>While the staff is very pleasant and the décor is fine, they are totally in disarray on the administrative side! Cant ever see myself staying there again! I guess if you have no issues, Ok...but I am still trying to resolve a billing issue from December. Stayed there again in May...my billing was a total mess, never actually got an answer on my questions...but I figured it out for my expense reports(I hope). Asked to meet with the manager twice when I was there and she blew me off. sent numerous emails and received half-hearted responses. Hopefully corporate will help me...but who has time to be chasing?????More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r451887414-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -363,9 +510,6 @@
     <t>I stay here frequently when I have an early morning flight out of IAH.  It is convenient to get to, nice rooms, clean and quiet.  I am able to leave my car for the period of time I am gone.  Arrive back late, stay overnight again and drive home the next day.  This last visit the shuttle driver was so helpful and the night desk clerk went above and beyond to assist me.  I will be back again.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>martha h, Manager at Courtyard Houston North, responded to this reviewResponded January 15, 2017</t>
   </si>
   <si>
@@ -397,6 +541,57 @@
   </si>
   <si>
     <t>Very accommodating. We arrived late and they had everything ready for us. Lovely staff. Great breakfast also :-) We appreciate the goody bags too. And the decorations for Super Bowl were nice. Can't say enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r419722841-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419722841</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>I was here for personal business</t>
+  </si>
+  <si>
+    <t>Jill the young lady at the desk the night I checked in was wonderful.  The renovations are great. The rooms have such a warm feeling to them.  I was able to get a ride to a local restaurant and the driver was pleasant.  I would return to this property if I ever come to Houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2016</t>
+  </si>
+  <si>
+    <t>Jill the young lady at the desk the night I checked in was wonderful.  The renovations are great. The rooms have such a warm feeling to them.  I was able to get a ride to a local restaurant and the driver was pleasant.  I would return to this property if I ever come to Houston again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r417716902-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417716902</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Typical Marriott Courtyard...which isn't a bad thing at all</t>
+  </si>
+  <si>
+    <t>Courtyard's used to be one of my favorite Marriott brands but after the major overhaul a number of years ago they lost, for me, some of their appeal. Don't get me wrong, I'm a diehard Marriott loyalist staying at one Marriott branded property or another it just that Courtyards aren't what they used to be.Given all if that, they are still nice properties and this one is convenient to the airport and downtown. It's always clean and staff is personable.Whenever I'm in Houston for business it's where I always stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Courtyard's used to be one of my favorite Marriott brands but after the major overhaul a number of years ago they lost, for me, some of their appeal. Don't get me wrong, I'm a diehard Marriott loyalist staying at one Marriott branded property or another it just that Courtyards aren't what they used to be.Given all if that, they are still nice properties and this one is convenient to the airport and downtown. It's always clean and staff is personable.Whenever I'm in Houston for business it's where I always stay.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r386827003-Courtyard_Houston_North-Houston_Texas.html</t>
@@ -483,6 +678,48 @@
 All in all, eight guests with confirmed reservations were told there were no rooms. Repeatedly. Frustrated that we would not leave, the night clerk, at one point, looked me straight in the eyes and told me to walk...We love staying at Marriott properties and having been doing so for thirty years. We lost a little of that love with this property. In our single experience, the Marriott Courtyard Houston North is a tired property with nighttime employees who are tired of guests.Let me preface by saying storms had hit the Houston area, our flight was late and thousands were stranded. No rental cars to be had, taxis were at a premium and available hotel rooms were non-existent. We had (fortunately?) made reservations six hours earlier knowing that we would miss our connecting flight out of Houston and it would require us to stay overnight. When we made our reservation, this was the only Marriott property available that was close to the airport (four miles away).We arrived in the hotel lobby around 1:30am to find the night check-in person arguing with someone attempting to check-in. She ended their conversation abruptly by turning to us and asking, “Can I help you?” We told her we had a reservation and she replied there were no rooms. My husband proceeded to show her our guaranteed confirmed reservation and she continued to say, “It does not matter. We have no rooms.” Repeatedly. All in all, eight guests with confirmed reservations were told there were no rooms. Repeatedly. Frustrated that we would not leave, the night clerk, at one point, looked me straight in the eyes and told me to walk out the door. We waited. We had nowhere to go. Another nighttime employee arrived from the Residence Inn next door to help. He navigated around on the check-in computer and also told us no rooms were available. Three people who had cars gave up and left. We stayed. No taxis were available. This second night clerk then made reservations for us at another Marriott Courtyard on Louett Drive. He finally had to abandon moving us to that hotel because he could not find transportation. Then, an hour after our arrival, this second night clerk announced rooms were now available for us. No, no one had moved out. They just miraculously found rooms. The Marriott’s smoking-not-allowed third floor hallway smelled of cigarette smoke. Room 307. I turned off the loud humidifier contraption in our tired room. Truly not expecting much because it was an older hotel and we were now three-in-the-morning-exhausted, we didn’t even mind the hard bed . . . or the lights by the bed that did not work . . . or the telephone that did not work . . . or the hair dryer that did not work.Overall, the hotel is tired and in need of repair and updating; and, the nighttime staff’s treatment of their arriving guests was unprofessional, unhelpful, and just plain insulting.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r377981426-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377981426</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Just an ok stay, hotel needs some updating</t>
+  </si>
+  <si>
+    <t>Probably will be the last time for me at this location.  The staff is very nice and friendly but the hotel like many of the Courtyards I have stayed at recently appear to need updating.  Things just seemed a little dingy; maybe some new carpet or paint would help.  I am loyal to Marriott but will probably try to find a Fairfield Inn next time - have been happier with that brand recently.MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Probably will be the last time for me at this location.  The staff is very nice and friendly but the hotel like many of the Courtyards I have stayed at recently appear to need updating.  Things just seemed a little dingy; maybe some new carpet or paint would help.  I am loyal to Marriott but will probably try to find a Fairfield Inn next time - have been happier with that brand recently.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r377683549-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>377683549</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin </t>
+  </si>
+  <si>
+    <t>The hotel is very clean, it was a great stay!  Let me tell you the young man at the front desk is what makes this hotel great, His name is Martin he made a stumble we had that was going straight hell great again, he rearranges our hotels and transportation in another country, he even checked in our luggage at the airport he helped out on serving the food we ate at night even provided milk for my kids. And I was shocked to see him back in the morning to help shuttle the driver with our bags, I guessed he was a supervisor only to find he wasn't what a bright spirit Good job management for hiring people like him MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is very clean, it was a great stay!  Let me tell you the young man at the front desk is what makes this hotel great, His name is Martin he made a stumble we had that was going straight hell great again, he rearranges our hotels and transportation in another country, he even checked in our luggage at the airport he helped out on serving the food we ate at night even provided milk for my kids. And I was shocked to see him back in the morning to help shuttle the driver with our bags, I guessed he was a supervisor only to find he wasn't what a bright spirit Good job management for hiring people like him More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r371265975-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -561,6 +798,57 @@
     <t>We were stuck in Houston during a blizzard that closed our airport at home in Denver. Pleasantly surprised at great bar and menu options, and excellent service although the bar was swamped with other stranded travelers.  Servers Schlayia &amp; Anthony were personable and prompt, helped ease our frazzled nerves.  Guest room was great.  This property &amp; staff helped turn a bad situation into a pleasant one after all.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r363625512-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363625512</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Quick stay</t>
+  </si>
+  <si>
+    <t>Our fight was canceled at 10 pm and we needed a place to stay until 4 am. I refused to crash at the airport since I value my sleep. We called the hotel right away letting them know we needed someone to pick us up from the airport. Corrine was super friendly and told us someone would be over right away. We arrive to the hotel and we get our keys. I didn't particularly like the hallways heading to our room. It was very old and dated. Once we arrive to our room, it was clean but dated. I'm very happy our room was quiet and away from the highway! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2016</t>
+  </si>
+  <si>
+    <t>Our fight was canceled at 10 pm and we needed a place to stay until 4 am. I refused to crash at the airport since I value my sleep. We called the hotel right away letting them know we needed someone to pick us up from the airport. Corrine was super friendly and told us someone would be over right away. We arrive to the hotel and we get our keys. I didn't particularly like the hallways heading to our room. It was very old and dated. Once we arrive to our room, it was clean but dated. I'm very happy our room was quiet and away from the highway! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r358522315-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358522315</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>In all my years of travel I have never been treated so well. Please read below!</t>
+  </si>
+  <si>
+    <t>Ms. Hicks, I just have to say that the staff at your hotel were exemplary! With the overwhelming intake of guests due to the weather in Denver your staff never faltered once.  From the time I booked the room from Cancun MX until we left your hotel, I must say that in all my travels I have NEVER been treated so well. Sherman was the driver that picked us up from the Airport and even though his shuttle was full he made sure that the elderly foursome waiting were taken care of and were going to be okay until the next shuttle arrived. When we arrived we were greeted by Dianna and her service was second to none! All though to me she looked like she needed help, she breezed through the guests, checked them in and was helping the café staff that were making sure that everyone that had ordered food was getting their orders. We were only there for a short time but I know when I travel to Houston again that I will be staying at your hotel. I can only imagine that with employees that handle themselves like your employees do that they are led by  someone who cares. So I say thank you again for people who went over and above to make sure we all felt welcome! Thank you, Lance BoothMoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded March 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2016</t>
+  </si>
+  <si>
+    <t>Ms. Hicks, I just have to say that the staff at your hotel were exemplary! With the overwhelming intake of guests due to the weather in Denver your staff never faltered once.  From the time I booked the room from Cancun MX until we left your hotel, I must say that in all my travels I have NEVER been treated so well. Sherman was the driver that picked us up from the Airport and even though his shuttle was full he made sure that the elderly foursome waiting were taken care of and were going to be okay until the next shuttle arrived. When we arrived we were greeted by Dianna and her service was second to none! All though to me she looked like she needed help, she breezed through the guests, checked them in and was helping the café staff that were making sure that everyone that had ordered food was getting their orders. We were only there for a short time but I know when I travel to Houston again that I will be staying at your hotel. I can only imagine that with employees that handle themselves like your employees do that they are led by  someone who cares. So I say thank you again for people who went over and above to make sure we all felt welcome! Thank you, Lance BoothMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r356961043-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -600,9 +888,6 @@
     <t>We had a small older room with a humidifier running (which made white noise so not too bad). The reception staff was very friendly &amp; helpful. Public area was renovated with a nice bistro area. Free convenient well lit parking made for easy in &amp; out.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded March 3, 2016</t>
   </si>
   <si>
@@ -639,6 +924,57 @@
     <t>I was generally impressed with the cleanliness of the hotel and the service I received from the staff. Was greeted with a smile and went out of their way to make me feel welcome. Called for shuttle and they arrived quickly to pick up my family and I. I would definitely stay at the Courtyard again on my next visit !!! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r335313350-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>335313350</t>
+  </si>
+  <si>
+    <t>12/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent Staff &amp; Service near the Airport</t>
+  </si>
+  <si>
+    <t>I travel fairly often and typically do end up staying at Courtyards and other Marriott properties near airports. I have stayed at this location a couple of times in the past few months and one thing that really stands out is the friendly, helpful staff at the front desk.  They have made local restaurant recommendations, arranged hotel shuttle rides and really did seem to appreciate my business and loyalty. I plan to stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded December 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2015</t>
+  </si>
+  <si>
+    <t>I travel fairly often and typically do end up staying at Courtyards and other Marriott properties near airports. I have stayed at this location a couple of times in the past few months and one thing that really stands out is the friendly, helpful staff at the front desk.  They have made local restaurant recommendations, arranged hotel shuttle rides and really did seem to appreciate my business and loyalty. I plan to stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r333578387-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333578387</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Slow and no show shuttle</t>
+  </si>
+  <si>
+    <t>We waited for the promised shuttle for 40 minutes. Finally we were told to take a taxi and the hotel would pay the driver. When we finally got to the hotel, the clerk gave the driver a hard time about the payment and wanted him to take a voucher which was not going to happen. After that was settled, the clerk provided our room which was adequate, clean, but nothing special. After this ordeal, the clerk offered us a free appetizer at The Bistro. We appreciated the offer and acknowledgement of less than perfect.service. Honesty goes a long way to get a less than satisfied customer to return. .MoreShow less</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>We waited for the promised shuttle for 40 minutes. Finally we were told to take a taxi and the hotel would pay the driver. When we finally got to the hotel, the clerk gave the driver a hard time about the payment and wanted him to take a voucher which was not going to happen. After that was settled, the clerk provided our room which was adequate, clean, but nothing special. After this ordeal, the clerk offered us a free appetizer at The Bistro. We appreciated the offer and acknowledgement of less than perfect.service. Honesty goes a long way to get a less than satisfied customer to return. .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r333421249-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -654,9 +990,6 @@
     <t>Easy to get to from the airport but shuttle service was a bit lacking.  Rooms are fine...nothing fancy and it is clean.  The bistro is nice for late arrival and a pretty decent breakfast to kickstart early the next morning.  Staff was extremely friendly and supportive.MoreShow less</t>
   </si>
   <si>
-    <t>December 2015</t>
-  </si>
-  <si>
     <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded December 17, 2015</t>
   </si>
   <si>
@@ -696,6 +1029,57 @@
     <t>We had an overnight stay for a flight in Houston. Although not as close to the airport as we thought, the shuttle service was prompt. The entire staff was extremely friendly and helpful. Our room was spotless and perfect. Would highly recommend this hotel. Cute little bistro w good food too, open until 9:30.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r327218745-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327218745</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Another Courtyard Stay in October</t>
+  </si>
+  <si>
+    <t>Being close to airport, I was surprised the complimentary hotel shuttle ran only once an hour. I waited about 30 minutes. On return, missed shuttle and had to get to airport to catch flight so couldn't wait another hour. Asked front desk to summon a cab; got a limo sedan in 10 minutes; cost $30 to get to airport. Fortunately on business to expense it.Room was typical Courtyard; front desk staff were accommodating and welcoming. Quick overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Being close to airport, I was surprised the complimentary hotel shuttle ran only once an hour. I waited about 30 minutes. On return, missed shuttle and had to get to airport to catch flight so couldn't wait another hour. Asked front desk to summon a cab; got a limo sedan in 10 minutes; cost $30 to get to airport. Fortunately on business to expense it.Room was typical Courtyard; front desk staff were accommodating and welcoming. Quick overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r324462728-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324462728</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Marriott Will Never See Another Dime From Me Because Of These Liars</t>
+  </si>
+  <si>
+    <t>Came in on an international flight from Costa Rica to Houston to then catch a regional flight home and Customs held about 1500 people because of their incompetence.   We nosed or connecting flight home and had to stay overnight.   Located this Courtyard close to the airport.  My wife made the reservation . They said the shuttle would be at the terminal in 20 minutes.  That came and left- no shuttle.  My wife called back and they claimed it would be there in another 20 minutes.  Still no show. Called Marriott call center and they said they were very busy and what did  we expect them to do about it.    My expectations were not to be lied to and to rent a room.  Both were evidently too big of   a hurdle for Marriott to handle.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2015</t>
+  </si>
+  <si>
+    <t>Came in on an international flight from Costa Rica to Houston to then catch a regional flight home and Customs held about 1500 people because of their incompetence.   We nosed or connecting flight home and had to stay overnight.   Located this Courtyard close to the airport.  My wife made the reservation . They said the shuttle would be at the terminal in 20 minutes.  That came and left- no shuttle.  My wife called back and they claimed it would be there in another 20 minutes.  Still no show. Called Marriott call center and they said they were very busy and what did  we expect them to do about it.    My expectations were not to be lied to and to rent a room.  Both were evidently too big of   a hurdle for Marriott to handle.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r322901846-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -711,9 +1095,6 @@
     <t>While traveling on company business we booked this hotel due to proximity to working location.  During the evening 6 cars were broken into in the parking lot, one car right beside the entrance to the hotel.  People were seen in the parking lot with flashlights looking into cars, but no security or camera's on exterior of building.  They spent time in each vehicle to pull this off, so it did not happen in just a couple of minutes.  When i reported to manager (Marsha) she was nonchalant stating they had security and she "understood" the situation, but that was her last comment.The interior of the hotel is nice but i would not stay at this location if i was driving into town, to big a risk.  For a Marriott, where you expect and pay for better service and accomdations you have expectations, which they absolutely failed to fulfill.  I would not stay here under any circumstance.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>Diana D, Manager at Courtyard Houston North, responded to this reviewResponded October 30, 2015</t>
   </si>
   <si>
@@ -768,30 +1149,66 @@
     <t>I've stayed here for two nights.  I didn't use the hotel shuttle bus but they have one to pick up guest at the airport and take them to the neighborhood mall.  The best perk about this place is the gym. They have an on-site workout facility but also teamed up with a neighboring gym that is as big as the hotel (it's huge) with workout classes. The area around the hotel is not the best of neighborhoods. But it works. The hotel is out dated especially for the price that I paid. For a business trip I would come back.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r284906329-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284906329</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Below Average Courtyard ... Needs Help.</t>
+  </si>
+  <si>
+    <t>I am a big fan of the Courtyard Brand and stay at Marriott Hotels on average 70-80 nights a year.  This particular property needs some help and is not up to the standard of the newer Courtyard properties.  The property is older and shows its age.  The rooms, while large, were outdated and a bit "musty".  The layout was a throw back to a few years ago with modest decor.  The worst part was the stairwell, with the plastic film and blue tape walls covering exposed walls, not to mention the AC working overtime to try and hide the damp musty smell in the stairwell.As always, the staff are great and the condition of the property does not reflect the service.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded July 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2015</t>
+  </si>
+  <si>
+    <t>I am a big fan of the Courtyard Brand and stay at Marriott Hotels on average 70-80 nights a year.  This particular property needs some help and is not up to the standard of the newer Courtyard properties.  The property is older and shows its age.  The rooms, while large, were outdated and a bit "musty".  The layout was a throw back to a few years ago with modest decor.  The worst part was the stairwell, with the plastic film and blue tape walls covering exposed walls, not to mention the AC working overtime to try and hide the damp musty smell in the stairwell.As always, the staff are great and the condition of the property does not reflect the service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r283738780-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283738780</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, close to the airport</t>
+  </si>
+  <si>
+    <t>We only needed a place to stay for one night prior to flying out the next morning and this hotel did us well. The place did well by us.  Its clean, comfortable, quiet, and close the airport.  Wouldn't hesitate staying here againMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We only needed a place to stay for one night prior to flying out the next morning and this hotel did us well. The place did well by us.  Its clean, comfortable, quiet, and close the airport.  Wouldn't hesitate staying here againMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r283635148-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
     <t>283635148</t>
   </si>
   <si>
-    <t>06/28/2015</t>
-  </si>
-  <si>
     <t>Marriott Courtyard Houston North (Hedgecroft Dr)</t>
   </si>
   <si>
     <t>Very nice hotel, built for business traveler. Nice amenities and in good area for the location, was safe and security was at night. Staff was very nice and professional, had hourly rides to GW Bush airport. I felt I would let my kids go to pool alone and back safe.Downside:Ask for mini fridge, as there is nothing to heat up or keep cool your leftovers or snacks.Nothing is around to eat except a few fast food places and the hotel is on a one way street, so you have to go around the back of hotel and back up again to get something quick.Hotel's dinner/cafe is too high, I spend $10 for just eggs and a small side. Eat before you get there or leave earlier to get a good bfastMoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded July 2, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 2, 2015</t>
-  </si>
-  <si>
     <t>Very nice hotel, built for business traveler. Nice amenities and in good area for the location, was safe and security was at night. Staff was very nice and professional, had hourly rides to GW Bush airport. I felt I would let my kids go to pool alone and back safe.Downside:Ask for mini fridge, as there is nothing to heat up or keep cool your leftovers or snacks.Nothing is around to eat except a few fast food places and the hotel is on a one way street, so you have to go around the back of hotel and back up again to get something quick.Hotel's dinner/cafe is too high, I spend $10 for just eggs and a small side. Eat before you get there or leave earlier to get a good bfastMore</t>
   </si>
   <si>
@@ -837,6 +1254,45 @@
     <t>I really liked the service from the staff, I found the hotel nice, clean and comfortable however I have to say that was not good at the time to wannabes eat something... No restaurant.They can take you but it's with transportation every hour and pick you up hard to coordinate More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r277302518-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277302518</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Jeffcolt</t>
+  </si>
+  <si>
+    <t>This is a great place to stay.The people are all friendly and very professional .The rooms are great you can relax and enjoy.The location is close to all the fine eating places.Plenty of things to do nearby.The hotel bar is great so is the inside pool and workout room.I work out of town a lot and this is one of my favorite hotels to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a great place to stay.The people are all friendly and very professional .The rooms are great you can relax and enjoy.The location is close to all the fine eating places.Plenty of things to do nearby.The hotel bar is great so is the inside pool and workout room.I work out of town a lot and this is one of my favorite hotels to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r274202826-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274202826</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Layover due to missed flight</t>
+  </si>
+  <si>
+    <t>Staff is very nice. Rooms are clean and beds are super comfortable. It's close to the airport so it's not quiet, but still slept like a baby. Love the fact they have Starbucks in the lobby! The free shuttle is extremely helpful. Happy traveling!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Staff is very nice. Rooms are clean and beds are super comfortable. It's close to the airport so it's not quiet, but still slept like a baby. Love the fact they have Starbucks in the lobby! The free shuttle is extremely helpful. Happy traveling!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r273173399-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -852,9 +1308,6 @@
     <t>I wish hotels couldn't use the Courtyard brand if they don't actually have a courtyard.  Most Courtyard properties have rooms that surround an idyllic, peaceful centerpiece which features pools, gardens, etc.  Not this place.  It faces a busy freeway which generates tremendous noise day and night and seems to have no quiet area.  On top of that you frequently hear planes flying overhead.  This was not a very restful trip for me.Despite my Platinum status, I neither got the room that I asked for nor the view I wanted.  There are just a couple choices for breakfast and none that I wanted; I miss the breakfast buffet that courtyard had before.  An hour before checking out (after a 5 night stay) I got an email from the manager asking me to reply if I needed anything during my stay.The whole place is very clean and in good shape, the staff was friendly and the bed was comfortable.  I've just come to expect more.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>I wish hotels couldn't use the Courtyard brand if they don't actually have a courtyard.  Most Courtyard properties have rooms that surround an idyllic, peaceful centerpiece which features pools, gardens, etc.  Not this place.  It faces a busy freeway which generates tremendous noise day and night and seems to have no quiet area.  On top of that you frequently hear planes flying overhead.  This was not a very restful trip for me.Despite my Platinum status, I neither got the room that I asked for nor the view I wanted.  There are just a couple choices for breakfast and none that I wanted; I miss the breakfast buffet that courtyard had before.  An hour before checking out (after a 5 night stay) I got an email from the manager asking me to reply if I needed anything during my stay.The whole place is very clean and in good shape, the staff was friendly and the bed was comfortable.  I've just come to expect more.More</t>
   </si>
   <si>
@@ -903,6 +1356,51 @@
     <t>We missed an airline connection in Denver on a trip to Central America and we were given vouchers to stay at the Courtyard. We were given a ride to the hotel my another Marriott shuttle van. Our luggage was held at the airport and the hotel provided all needed toiletry items not in our carry-ons.  There was a nice restaurant, bar, and area for watching the play-off games.  There was a nice variety of menu items to choose from.  The food was good.The room was very comfortable and had all the amenities. The noise was minimal from the outside. We also used the shuttle service to return to the airport the following morning.All staff was very friendly and helpful.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r243238861-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>243238861</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>My one night stay was the best in quite a while</t>
+  </si>
+  <si>
+    <t>I arrived quite late and was greeted very well. Being a platinum member I was offered any food item from the fridge. I was starving so I found a lean cuisine dish that was, well you know, about as good as can be expected. The gentleman at the front desk told me they were out of bottled water which truly surprised me. I don't drink soda so I was disappointed. But lo and behold I received a call from this gentleman when I got to my room. He told me he located some bottled water and would run it up to me! That made my day, or night should I say. The room was clean, bed comfortable and the working area to my satisfaction the next morning as I had a ton of work to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I arrived quite late and was greeted very well. Being a platinum member I was offered any food item from the fridge. I was starving so I found a lean cuisine dish that was, well you know, about as good as can be expected. The gentleman at the front desk told me they were out of bottled water which truly surprised me. I don't drink soda so I was disappointed. But lo and behold I received a call from this gentleman when I got to my room. He told me he located some bottled water and would run it up to me! That made my day, or night should I say. The room was clean, bed comfortable and the working area to my satisfaction the next morning as I had a ton of work to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r242514374-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242514374</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stayed over the Thanksgiving weekend.  Although they had a sign up noting limited service, the staff went out of the way to accommodate us during our stay.  It was so relaxing to be able to relax in peace and quiet.  The cafe has great food if you choose to eat there.  The breakfast was amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2014</t>
+  </si>
+  <si>
+    <t>Stayed over the Thanksgiving weekend.  Although they had a sign up noting limited service, the staff went out of the way to accommodate us during our stay.  It was so relaxing to be able to relax in peace and quiet.  The cafe has great food if you choose to eat there.  The breakfast was amazing.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r240394821-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -919,12 +1417,6 @@
   </si>
   <si>
     <t>October 2014</t>
-  </si>
-  <si>
-    <t>martha h, General Manager at Courtyard Houston North, responded to this reviewResponded December 3, 2014</t>
-  </si>
-  <si>
-    <t>Responded December 3, 2014</t>
   </si>
   <si>
     <t>I thought this was a very good little airport hotel.  We were able to leave our car there and had a ride from the shuttle to the airport.   Had a nice little bar/cafe in it and service was very good, everyone was friendly and accomodating.   IT was very comfortable and pleasant.More</t>
@@ -983,6 +1475,45 @@
 4) bistro - this is one of the main reasons for my downgrade. first off it was not busy yet nobody came out to help me for at least 10 minutes. the food was absolutely awful (I'm sorry but that's the truth) - the chicken wings were literally the worst I have eaten in years (undercooked, rubbery, tasteless) and the pizza was way too doughy....I am a regular traveler and have stayed at many courtyards. THis is not one I would visit again. Here are some tips to help you1) Let me say first off that the front desk staff was the exception to my subpar stay - the front desk staff was excellent, courteous, and very helpful. they did a nice job2) location - it's hard to call this an 'airport' hotel when it's a 15+ minute drive to get there (and $20-25 cab ride). they have an airport shuttle but it only leaves once/hour on the hour so not that convenient. also I think I passed 10+ other hotels that are much closer to the airport and there was at least a couple in the marriott family3) rooms/lobby  - yes it's been updated but it still looks a bit rundown. the lobby already seems kind of older and the rooms were just ok but there is quite a bit of outside noise from the nearby roads at night while you are trying to sleep4) bistro - this is one of the main reasons for my downgrade. first off it was not busy yet nobody came out to help me for at least 10 minutes. the food was absolutely awful (I'm sorry but that's the truth) - the chicken wings were literally the worst I have eaten in years (undercooked, rubbery, tasteless) and the pizza was way too doughy. The waiter never once smiled or spoke in anything other than a mumble and did nothing to show he even cared. Quite simply it was a real shame and for the price it was terrible. ($9.99 for 6 wings and $15 for a bad pizza)As I said the only bright spot was the friendliness of the front desk, yet for all the other reasons I would not return.  SorryMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r223637682-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223637682</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Weigh all sides before coming!</t>
+  </si>
+  <si>
+    <t>Stayed four nights. On the plus side, it is close to the airport and near the offices in Greenspoint, super friendly staff, large clean rooms, microwave and fridge. On the minuses, two big considerations are it does not offer complimentary breakfast and the mall nearby is not known be the safest hangout in Houston. I heard lots of police siren at night. I was warned by the conference organizers to move around by car only. Moreover, the access road sign from the frontage road off the freeway is too small and easy to miss at night. It could still be a convenient choice if you need to stay near the airport and can digest breakfast tag. Good restaurants are at least a mile or two away.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Stayed four nights. On the plus side, it is close to the airport and near the offices in Greenspoint, super friendly staff, large clean rooms, microwave and fridge. On the minuses, two big considerations are it does not offer complimentary breakfast and the mall nearby is not known be the safest hangout in Houston. I heard lots of police siren at night. I was warned by the conference organizers to move around by car only. Moreover, the access road sign from the frontage road off the freeway is too small and easy to miss at night. It could still be a convenient choice if you need to stay near the airport and can digest breakfast tag. Good restaurants are at least a mile or two away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r211131666-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211131666</t>
+  </si>
+  <si>
+    <t>06/19/2014</t>
+  </si>
+  <si>
+    <t>EXCELLENT PLACE TO STAY WHEN FLYING FROM BUSH AIRPORT</t>
+  </si>
+  <si>
+    <t>We stay here the evening before we departed bush airport and the room was very comfortable and CLEAN.....The shuttle took us to the airport and picked us up promptly.. we left our car at the hotel during our  trip......we would definitely use this hotel , again...the staff was super friendly and helpful...thanks, ashley and nicole!! i give you both an A+....</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r209828574-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -998,9 +1529,6 @@
     <t>I love Marriott and stay over 100 nights a year at Marriott properties so I hate to give a Marriott property less than 3 or 4 stars. With that being said, this Courtyard...even though it is one of the remodeled lobby Courtyards...does not meet Marriott standards. If you ride the shuttle to the airport, they only have one every hour. So that means that if your flight is at 8:30 am, you need to take the 6 am shuttle! Horrible customer service. In my room they had the refrigerator and microwave BETWEEN the desk and the TV, so you couldn't sit at the desk and watch TV while you worked unless you did a little furniture moving. (Missing the whole concept of the Marriott Courtyard remodel several years ago where Marriott spent big bucks and did extensive studies only to find out what I could have told them if they would have just asked me...businessmen like to sit at their desk and watch TV while they work.) The exercise room has older equipment...Precor so good equipment...just older. My room REEKED of cigarette smoke . The thermostat on the wall had a sign that said the temperature controls were on the window unit...wait...didn't all of the hotels in America above the level of Motel 6's move away from window unit thermostats sometime back in the 90's?  The employees were all very friendly...but that doesn't make up for all of the other...I love Marriott and stay over 100 nights a year at Marriott properties so I hate to give a Marriott property less than 3 or 4 stars. With that being said, this Courtyard...even though it is one of the remodeled lobby Courtyards...does not meet Marriott standards. If you ride the shuttle to the airport, they only have one every hour. So that means that if your flight is at 8:30 am, you need to take the 6 am shuttle! Horrible customer service. In my room they had the refrigerator and microwave BETWEEN the desk and the TV, so you couldn't sit at the desk and watch TV while you worked unless you did a little furniture moving. (Missing the whole concept of the Marriott Courtyard remodel several years ago where Marriott spent big bucks and did extensive studies only to find out what I could have told them if they would have just asked me...businessmen like to sit at their desk and watch TV while they work.) The exercise room has older equipment...Precor so good equipment...just older. My room REEKED of cigarette smoke . The thermostat on the wall had a sign that said the temperature controls were on the window unit...wait...didn't all of the hotels in America above the level of Motel 6's move away from window unit thermostats sometime back in the 90's?  The employees were all very friendly...but that doesn't make up for all of the other issues.MoreShow less</t>
   </si>
   <si>
-    <t>June 2014</t>
-  </si>
-  <si>
     <t>CourtyardIAH_GM, General Manager at Courtyard Houston North, responded to this reviewResponded June 16, 2014</t>
   </si>
   <si>
@@ -1055,6 +1583,45 @@
     <t>This Hotel advertises as being close to the international Airport, False, it is at least a 35-45 min shuttle ride if there is no rush hour traffic. The Shuttle bus runs only each hour on the hour, that means if he just left the Airport you could have an hour and half wait like we did.They advertise an in house restaurant, false, they have a bar near front desk that is sometimes open and serves sandwiches and donuts at a ridiculous price,I was looking to sit in a dinning room after long day of travel and relax and enjoy a nice meal with my wife guess what  the bar was closed and I went to our room and shared a cookie  that my wife brought with her.The next morning we did have  a decent breakfast that the cook who tried his best to prepare and serve us as he was all alone with a dozen others waiting for breakfast, he was the only good thing the Hotel had going for them and I felt sorry for him as he kept apologizing to everyone but he was doing the very best he could.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r195379296-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195379296</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>OK for a short stay</t>
+  </si>
+  <si>
+    <t>The Courtyard is not a terrible place - we stayed here in between flights going down to Costa Rica (to avoid the redeye to Houston).  The lobby has been renovated with the "Bistro" but it doesn't seem like the rooms have gotten the similar treatment.  They weren't horrible, but not as refreshed as some of the other Courtyards I've stayed at.The hotel was very competitively priced (compared to other IAH hotels that I've stayed at) which made it the choice.  As other reviewers have stated, they aren't really close to much, so if you don't have a car, you are pretty stuck (not that many of the other local hotels are much better).  Luckily, the Bistro does have decent food options so not horrible (we usually just eat at Pappadeaux's at IAH when we do this, so no big loss).The beds were reasonably comfortable and the shuttle service was friendly and made it easy to get there and back.  They are a little further away from many of the other airport hotels (at least it felt like that on the shuttle!) but still only a few minutes away from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>The Courtyard is not a terrible place - we stayed here in between flights going down to Costa Rica (to avoid the redeye to Houston).  The lobby has been renovated with the "Bistro" but it doesn't seem like the rooms have gotten the similar treatment.  They weren't horrible, but not as refreshed as some of the other Courtyards I've stayed at.The hotel was very competitively priced (compared to other IAH hotels that I've stayed at) which made it the choice.  As other reviewers have stated, they aren't really close to much, so if you don't have a car, you are pretty stuck (not that many of the other local hotels are much better).  Luckily, the Bistro does have decent food options so not horrible (we usually just eat at Pappadeaux's at IAH when we do this, so no big loss).The beds were reasonably comfortable and the shuttle service was friendly and made it easy to get there and back.  They are a little further away from many of the other airport hotels (at least it felt like that on the shuttle!) but still only a few minutes away from the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r188771811-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188771811</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>Mixed bag</t>
+  </si>
+  <si>
+    <t>It's a good hotel for what it is — a competitively-priced airport hotel.On the plus side, it's not far from IAH at all. It's convenient to the freeway, and during the daytime, the Greenspoint business district with some dining options. At night, the place becomes deserted and the hunt for food takes you into some suspect neighborhoods. There's nothing next to the hotel. There aren't even vending machines — Courtyard has adopted the "market" approach where you buy your products through the front desk.The room was well-appointed with a flat-panel TV and free wifi (big plus in my book). There was also a microwave and fridge, but the fridge didn't work. The bathroom was fine, aside from some issues with sweeping that housekeeping needs to address. The bed was uncomfortably lumpy.Checkin-in and out was quick and super-friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>It's a good hotel for what it is — a competitively-priced airport hotel.On the plus side, it's not far from IAH at all. It's convenient to the freeway, and during the daytime, the Greenspoint business district with some dining options. At night, the place becomes deserted and the hunt for food takes you into some suspect neighborhoods. There's nothing next to the hotel. There aren't even vending machines — Courtyard has adopted the "market" approach where you buy your products through the front desk.The room was well-appointed with a flat-panel TV and free wifi (big plus in my book). There was also a microwave and fridge, but the fridge didn't work. The bathroom was fine, aside from some issues with sweeping that housekeeping needs to address. The bed was uncomfortably lumpy.Checkin-in and out was quick and super-friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r188406576-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1109,6 +1676,39 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r181185887-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181185887</t>
+  </si>
+  <si>
+    <t>10/15/2013</t>
+  </si>
+  <si>
+    <t>Night before the Cruise too Jamaica</t>
+  </si>
+  <si>
+    <t>I would recommend this hotel, It was a very nice place @ a great value. Hotel shuttle was very accommodating picking us up @ the airport &amp; taking us around town to stores &amp; restaurants. Pool was very nice, Spa was alittle hot, but most are. Café had good food &amp; made fresh.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r177815139-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>177815139</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>Not a good value</t>
+  </si>
+  <si>
+    <t>This is a very, very average Marriott Courtyard that seems to be in need of some updates. The wall-mounted A/C unit was not able to keep up with the air conditioning demands of a 90 degree day in September. Towels were thin and small, and the wash clothes were quite worn. Pillows were lumpy. For the price, there must be some better option I the area.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r168472282-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1166,6 +1766,39 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r159138523-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159138523</t>
+  </si>
+  <si>
+    <t>04/29/2013</t>
+  </si>
+  <si>
+    <t>Decent stay again</t>
+  </si>
+  <si>
+    <t>Stayed here again for one night to be close to IAH. The rooms are nice and comfortable, staff was good. The area is still very iffy and the hotel is set back off the highway, so no real noise.Again, good staff, clean rooms.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r158485129-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>158485129</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Very nice for hotel near airport</t>
+  </si>
+  <si>
+    <t>It was a good value for a chain hotel near a major airport. I liked that it had a little store where you could buy snacks and a bottle of beer. The indoor pool and the fitness facilities seemed very nice.  The front desk staff was very quick and very friendly.  The only real complaints I had were that two of the lampshades in my room had very noticeable cracks and holes in them, and the bath towels were fairly small and thin.  Overall, it exceeded my expectations, especially for the price.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r154248926-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1865,42 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r142138969-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142138969</t>
+  </si>
+  <si>
+    <t>10/06/2012</t>
+  </si>
+  <si>
+    <t>GOOD STAY-SAVED WITH ADVANCE PURCHASE-THRU TRAVELOCITY</t>
+  </si>
+  <si>
+    <t>We just finished staying here on a night layover at IAH Houston Intercontinental Airport.We bought the hotel with an advance booking through Travelocity for a total of $85 including taxes. Here are the Good Points:1.Free shuttle from and to IAH airport, a real bonus!2.Free wireless internet3.Courteous front desk staff and shuttle driver4. Very comfortable firm beds that gave us a great night's sleep5. Clean spacious roomsNegatives:We didn't stay long enough to sample food or other hotel facilities, so for us in our quick 7 hour stayover/sleep we had no issues or negatives.Hotel is about 10-15 minutes drive to the airport, so factor that in to your travel plans, plus you will have to wait for a shuttle pick up at the airport.Suggestion:We saved by buying with an advanced purchase rate through Travelocity, the hotel may also offer that, but I could not find a similar deal when I checked the Marriott-Courtyard website, so be advised there may be a better deal out there if you search around!Overall:Comfortable, clean, hotel with excellent service and good sleep quality beds and free airport shuttle, I'd stay here again, but look for a deal on the price of your accomodation!MoreShow less</t>
+  </si>
+  <si>
+    <t>We just finished staying here on a night layover at IAH Houston Intercontinental Airport.We bought the hotel with an advance booking through Travelocity for a total of $85 including taxes. Here are the Good Points:1.Free shuttle from and to IAH airport, a real bonus!2.Free wireless internet3.Courteous front desk staff and shuttle driver4. Very comfortable firm beds that gave us a great night's sleep5. Clean spacious roomsNegatives:We didn't stay long enough to sample food or other hotel facilities, so for us in our quick 7 hour stayover/sleep we had no issues or negatives.Hotel is about 10-15 minutes drive to the airport, so factor that in to your travel plans, plus you will have to wait for a shuttle pick up at the airport.Suggestion:We saved by buying with an advanced purchase rate through Travelocity, the hotel may also offer that, but I could not find a similar deal when I checked the Marriott-Courtyard website, so be advised there may be a better deal out there if you search around!Overall:Comfortable, clean, hotel with excellent service and good sleep quality beds and free airport shuttle, I'd stay here again, but look for a deal on the price of your accomodation!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r139958430-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139958430</t>
+  </si>
+  <si>
+    <t>09/10/2012</t>
+  </si>
+  <si>
+    <t>Stranded passengers</t>
+  </si>
+  <si>
+    <t>After a very stressful experience at IAH we spent the night at this hotel.  Everything was absolutely wonderful.  The staff are GREAT, from check-in, to the bistro lady to the charming shuttle driver. Yes, the mattresses are really soft. But we didn't spend much time sleeping as we had to be up at 4am again to get ready to get to the airport. I would recommend this hotel any time. Just keep in mind there are no restaurants (or anything really) nearby. You will need your own transport or the use the shuttle.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r139275486-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1280,6 +1949,39 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r133647646-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133647646</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>could have been better</t>
+  </si>
+  <si>
+    <t>I have stayed on 1st floor in my recent stay. When entering the room, I felt mold like smell in the room. Luckily, it was not too heavy. I think management should look into this. Overall, the room was clean except one of the towels had a black stain on it. I noticed after using it unfortunately. It was like somebody stepped on it. The air conditioner was noisy. It was one of those wall units. The lamps in the room were not sufficient. The bed was comfy, pillows were clean. Another disadvantage was lack of restaurants nearby. Hotel menu is pricey. The shuttle service was fast after calling from airport, but when leaving you need to watch your time. It is once every hour, if you miss it you have to wait an hour. The staff were friendly, I would recommend this hotel but with reservationMoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed on 1st floor in my recent stay. When entering the room, I felt mold like smell in the room. Luckily, it was not too heavy. I think management should look into this. Overall, the room was clean except one of the towels had a black stain on it. I noticed after using it unfortunately. It was like somebody stepped on it. The air conditioner was noisy. It was one of those wall units. The lamps in the room were not sufficient. The bed was comfy, pillows were clean. Another disadvantage was lack of restaurants nearby. Hotel menu is pricey. The shuttle service was fast after calling from airport, but when leaving you need to watch your time. It is once every hour, if you miss it you have to wait an hour. The staff were friendly, I would recommend this hotel but with reservationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r131793931-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131793931</t>
+  </si>
+  <si>
+    <t>06/11/2012</t>
+  </si>
+  <si>
+    <t>Nice service, too bad about the room</t>
+  </si>
+  <si>
+    <t>Front desk could not have been nicer, Bistro is handy and decent, shuttle driver was quick and efficient.Mattress was constructed by driving around Houston looking for sofa cushions put out for the trash.  I don't think I've ever had worse.  And the sheets were pure luxury, assuming you are homeless.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r130971712-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1346,6 +2048,42 @@
     <t>This is one of dozens of Marriott’s I have stayed in.  Its pretty run of the mill or up to par for their chain.  Rooms are clean, decent staff.  Overall no complaints about the hotel.Finding a place to eat is something else however.  The hotel is tucked into a business district which is both good and bad.  Traffic in front of the hotel is light but you have to drive to find something to eat.  Unless you’re accustom to paying a taxi I wouldn’t stay here without a rental car or other means of travel.It is also very close to a highway.  For some this isn’t a deal breaker but there are very few rooms that shield you from the highway traffic.  I was able to drown out the noise with the 'On' fan feature in the rooms HVAC.  Fine stay for business travel but nothing extraordinary.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r111606222-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>111606222</t>
+  </si>
+  <si>
+    <t>06/05/2011</t>
+  </si>
+  <si>
+    <t>Decent hotel, with basic ammenities. Clean and comfortable, courteous staff. They also have a shuttle service to shopping area and airport. The only drawback is that is has limited restuarant options within the hotel and around it.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r102377261-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>102377261</t>
+  </si>
+  <si>
+    <t>03/31/2011</t>
+  </si>
+  <si>
+    <t>Less than average for a Courtyard</t>
+  </si>
+  <si>
+    <t>Got stranded at IAH for a night and didn't want to pay the extortionate rate for the on-airport Marriott. This is your typical "who cares what you think, we're an airport hotel property living off your brand loyalty when you are stuck in town for a night and have an early flight in the morning" type of property. The place is a bit worn (but not embarrassingly so) and certainly clean. There are many much nicer Courtyards.It's a little far from the airport in my opinion, probably a 10-15 minute shuttle drive. There are no restaurants nearby so you need a car. The hotel offered to drop me off at a local "cajun seafood" place if the shuttle driver wasn't too busy (he was), but that seems to be the only nearby option. I ate in the hotel restaurant which is nothing special...very limited sandwich and salad type of menu.I would have given a 3 circle rating, but am giving a mandatory 1 circle deduction for outdated in-room square TV's. Come on now, I get it that the property is a cash cow. But at least give us an HDTV as "reward" for making the trek from the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>Got stranded at IAH for a night and didn't want to pay the extortionate rate for the on-airport Marriott. This is your typical "who cares what you think, we're an airport hotel property living off your brand loyalty when you are stuck in town for a night and have an early flight in the morning" type of property. The place is a bit worn (but not embarrassingly so) and certainly clean. There are many much nicer Courtyards.It's a little far from the airport in my opinion, probably a 10-15 minute shuttle drive. There are no restaurants nearby so you need a car. The hotel offered to drop me off at a local "cajun seafood" place if the shuttle driver wasn't too busy (he was), but that seems to be the only nearby option. I ate in the hotel restaurant which is nothing special...very limited sandwich and salad type of menu.I would have given a 3 circle rating, but am giving a mandatory 1 circle deduction for outdated in-room square TV's. Come on now, I get it that the property is a cash cow. But at least give us an HDTV as "reward" for making the trek from the airport.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r101505908-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1361,9 +2099,6 @@
     <t>Price is very reasonable, service in the breakfast area was outstanding.  Room is quite basic but good for the price of the room and clean enough.</t>
   </si>
   <si>
-    <t>March 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r94138229-Courtyard_Houston_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -1407,6 +2142,45 @@
   </si>
   <si>
     <t>November 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r54549582-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>54549582</t>
+  </si>
+  <si>
+    <t>01/27/2010</t>
+  </si>
+  <si>
+    <t>Don't Let the Bed Bugs Bite!</t>
+  </si>
+  <si>
+    <t>The toilet ran non-stop.  I had to close the door to the restroom just to sleep.  The ice machine on my floor didn't work!  Finally, there was a dead bug in my bed! To add insult the room cost $140 per night!   Despite the convenient location to the airport, I would not recommend this hotel to anyone NOR would I stay here again.  I am a Marriott Rewards Member and plan to bring these horrible conditions to Marriott's attention.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r19132198-Courtyard_Houston_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>19132198</t>
+  </si>
+  <si>
+    <t>08/19/2008</t>
+  </si>
+  <si>
+    <t>Convenient to Bush Airport - Good for Overnight</t>
+  </si>
+  <si>
+    <t>Hotel's location is an easy on/off to Loop 8 (Sam Houston Freeway).  It is located less than 10 minutes to the airport and only about 2 miles from I-45.  The hotel staff was friendly and prompt upon check-in.  Room was clean and everything in working order.  With the hotel's close proximity to Loop 8, road noise can be heard in one's room.  Though it can be heard, I did not find it difficult to sleep.  One drawback to the location is the lack of restaurants near by.  You will definitely need a car as the nearest sit-down restaurants are at least 10 - 15 minutes away.  This Courtyard does offer dinner service (about 10 items on the menu).  If fast food is ok, there is a Jack in the Box not too far.  Hotel is a good selection if one has an early AM flight or arrives late.  The airport's central car rental center is less than 10 minutes from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Hotel's location is an easy on/off to Loop 8 (Sam Houston Freeway).  It is located less than 10 minutes to the airport and only about 2 miles from I-45.  The hotel staff was friendly and prompt upon check-in.  Room was clean and everything in working order.  With the hotel's close proximity to Loop 8, road noise can be heard in one's room.  Though it can be heard, I did not find it difficult to sleep.  One drawback to the location is the lack of restaurants near by.  You will definitely need a car as the nearest sit-down restaurants are at least 10 - 15 minutes away.  This Courtyard does offer dinner service (about 10 items on the menu).  If fast food is ok, there is a Jack in the Box not too far.  Hotel is a good selection if one has an early AM flight or arrives late.  The airport's central car rental center is less than 10 minutes from the hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223143-r13206570-Courtyard_Houston_North-Houston_Texas.html</t>
@@ -2009,7 +2783,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2018,15 +2792,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2074,7 +2844,7 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>52</v>
@@ -2085,24 +2855,20 @@
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>4</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
         <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -2118,58 +2884,56 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
         <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -2185,31 +2949,31 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" t="s">
-        <v>79</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
         <v>62</v>
@@ -2217,20 +2981,24 @@
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2246,52 +3014,58 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>85</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="K6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L6" t="s">
-        <v>88</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -2307,58 +3081,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>3</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
@@ -2374,41 +3138,41 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" t="s">
-        <v>62</v>
-      </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -2417,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
+        <v>105</v>
+      </c>
+      <c r="X8" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y8" t="s">
         <v>107</v>
-      </c>
-      <c r="X8" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9">
@@ -2439,56 +3203,52 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
         <v>110</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>111</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
@@ -2504,31 +3264,31 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
         <v>118</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>119</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>120</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>121</v>
-      </c>
-      <c r="L10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>123</v>
       </c>
       <c r="O10" t="s">
         <v>62</v>
@@ -2543,13 +3303,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
         <v>124</v>
-      </c>
-      <c r="X10" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2565,52 +3325,58 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
         <v>127</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>128</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>129</v>
       </c>
-      <c r="K11" t="s">
-        <v>130</v>
-      </c>
-      <c r="L11" t="s">
-        <v>131</v>
-      </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
         <v>62</v>
       </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2626,56 +3392,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
         <v>136</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>137</v>
       </c>
-      <c r="J12" t="s">
-        <v>138</v>
-      </c>
-      <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" t="s">
-        <v>140</v>
-      </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>3</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -2691,56 +3453,58 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
         <v>144</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>145</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" t="s">
-        <v>148</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>149</v>
       </c>
       <c r="O13" t="s">
         <v>62</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
@@ -2756,52 +3520,56 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
         <v>153</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>154</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>155</v>
       </c>
-      <c r="K14" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>149</v>
-      </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
         <v>158</v>
-      </c>
-      <c r="X14" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15">
@@ -2817,56 +3585,56 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
         <v>161</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>162</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>163</v>
       </c>
-      <c r="K15" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" t="s">
-        <v>165</v>
-      </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -2882,56 +3650,52 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
         <v>170</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>171</v>
       </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>175</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
@@ -2947,52 +3711,58 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
         <v>179</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
         <v>180</v>
       </c>
-      <c r="J17" t="s">
-        <v>181</v>
-      </c>
-      <c r="K17" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" t="s">
-        <v>183</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>175</v>
-      </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
@@ -3008,34 +3778,34 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
         <v>187</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>188</v>
       </c>
-      <c r="J18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K18" t="s">
-        <v>190</v>
-      </c>
-      <c r="L18" t="s">
-        <v>191</v>
-      </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="O18" t="s">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3047,13 +3817,13 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
@@ -3069,34 +3839,34 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>193</v>
+      </c>
+      <c r="J19" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" t="s">
         <v>196</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>197</v>
       </c>
-      <c r="J19" t="s">
-        <v>198</v>
-      </c>
-      <c r="K19" t="s">
-        <v>199</v>
-      </c>
-      <c r="L19" t="s">
-        <v>200</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>201</v>
-      </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3108,13 +3878,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -3130,52 +3900,56 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
         <v>205</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
-        <v>206</v>
-      </c>
-      <c r="J20" t="s">
-        <v>207</v>
-      </c>
-      <c r="K20" t="s">
-        <v>208</v>
-      </c>
-      <c r="L20" t="s">
-        <v>209</v>
-      </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
         <v>62</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
@@ -3191,52 +3965,56 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>214</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>215</v>
-      </c>
-      <c r="J21" t="s">
-        <v>207</v>
-      </c>
-      <c r="K21" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" t="s">
-        <v>217</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>210</v>
-      </c>
       <c r="O21" t="s">
-        <v>115</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -3252,19 +4030,19 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
         <v>219</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>220</v>
-      </c>
-      <c r="J22" t="s">
-        <v>207</v>
       </c>
       <c r="K22" t="s">
         <v>221</v>
@@ -3273,31 +4051,37 @@
         <v>222</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="X22" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
@@ -3313,7 +4097,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3322,47 +4106,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
         <v>231</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="24">
@@ -3378,58 +4158,52 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>233</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>234</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>235</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>236</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>214</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
         <v>237</v>
       </c>
-      <c r="M24" t="n">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>229</v>
-      </c>
-      <c r="O24" t="s">
-        <v>62</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
-      <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>238</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>239</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="25">
@@ -3445,19 +4219,19 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
         <v>241</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>242</v>
-      </c>
-      <c r="J25" t="s">
-        <v>235</v>
       </c>
       <c r="K25" t="s">
         <v>243</v>
@@ -3466,31 +4240,35 @@
         <v>244</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
         <v>62</v>
       </c>
-      <c r="P25" t="s"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
@@ -3506,7 +4284,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3515,47 +4293,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O26" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="X26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
@@ -3571,7 +4349,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3580,25 +4358,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3610,13 +4388,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
@@ -3632,7 +4410,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3641,26 +4419,22 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>253</v>
-      </c>
-      <c r="O28" t="s">
-        <v>62</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
@@ -3671,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29">
@@ -3693,7 +4467,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3702,49 +4476,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="O29" t="s">
         <v>62</v>
       </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Y29" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
@@ -3760,7 +4528,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3769,25 +4537,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3799,13 +4567,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="X30" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="Y30" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
     </row>
     <row r="31">
@@ -3821,7 +4589,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3830,49 +4598,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
       </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="X31" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Y31" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
@@ -3888,7 +4650,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3897,47 +4659,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="J32" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="K32" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="L32" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="O32" t="s">
-        <v>192</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
-      <c r="S32" t="n">
-        <v>4</v>
-      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="X32" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="Y32" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33">
@@ -3953,7 +4717,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3962,45 +4726,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="K33" t="s">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
         <v>305</v>
       </c>
-      <c r="L33" t="s">
-        <v>306</v>
-      </c>
-      <c r="M33" t="n">
-        <v>3</v>
-      </c>
-      <c r="N33" t="s">
-        <v>298</v>
-      </c>
       <c r="O33" t="s">
-        <v>115</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>314</v>
+      </c>
+      <c r="X33" t="s">
+        <v>315</v>
+      </c>
       <c r="Y33" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34">
@@ -4016,7 +4784,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4025,22 +4793,22 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="J34" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K34" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L34" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s">
         <v>62</v>
@@ -4055,13 +4823,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35">
@@ -4077,7 +4845,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4086,53 +4854,43 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="J35" t="s">
         <v>319</v>
       </c>
       <c r="K35" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L35" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s">
+        <v>104</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
         <v>322</v>
       </c>
-      <c r="O35" t="s">
-        <v>62</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2</v>
-      </c>
-      <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>323</v>
       </c>
-      <c r="X35" t="s">
-        <v>324</v>
-      </c>
       <c r="Y35" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36">
@@ -4148,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4157,49 +4915,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L36" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="O36" t="s">
-        <v>332</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
       <c r="Y36" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37">
@@ -4215,7 +4967,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4224,49 +4976,49 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J37" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K37" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L37" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s">
-        <v>192</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>341</v>
+      </c>
+      <c r="X37" t="s">
+        <v>342</v>
+      </c>
       <c r="Y37" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="38">
@@ -4282,7 +5034,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4291,35 +5043,45 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J38" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>340</v>
+      </c>
+      <c r="O38" t="s">
+        <v>263</v>
+      </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
       <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>349</v>
+      </c>
+      <c r="X38" t="s">
+        <v>350</v>
+      </c>
       <c r="Y38" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39">
@@ -4335,7 +5097,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4344,49 +5106,47 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s">
         <v>62</v>
       </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R39" t="n">
-        <v>4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>357</v>
+      </c>
+      <c r="X39" t="s">
+        <v>358</v>
+      </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40">
@@ -4402,7 +5162,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4411,39 +5171,49 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="J40" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K40" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="L40" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
       <c r="R40" t="s"/>
-      <c r="S40" t="s"/>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>365</v>
+      </c>
+      <c r="X40" t="s">
+        <v>366</v>
+      </c>
       <c r="Y40" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41">
@@ -4459,7 +5229,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4468,49 +5238,43 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="J41" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K41" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L41" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="O41" t="s">
-        <v>192</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>4</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>372</v>
+      </c>
+      <c r="X41" t="s">
+        <v>373</v>
+      </c>
       <c r="Y41" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
@@ -4526,7 +5290,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4535,49 +5299,49 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="J42" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="K42" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="O42" t="s">
-        <v>192</v>
-      </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>381</v>
+      </c>
+      <c r="X42" t="s">
+        <v>382</v>
+      </c>
       <c r="Y42" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43">
@@ -4593,7 +5357,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4602,39 +5366,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="J43" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="K43" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="L43" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>381</v>
+      </c>
+      <c r="X43" t="s">
+        <v>382</v>
+      </c>
       <c r="Y43" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44">
@@ -4650,7 +5422,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4659,49 +5431,47 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="J44" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K44" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
         <v>62</v>
       </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
       <c r="S44" t="n">
         <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>381</v>
+      </c>
+      <c r="X44" t="s">
+        <v>382</v>
+      </c>
       <c r="Y44" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45">
@@ -4717,7 +5487,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4726,53 +5496,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="J45" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K45" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s">
+        <v>400</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>389</v>
       </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="s">
-        <v>390</v>
-      </c>
       <c r="O45" t="s">
-        <v>62</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>4</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="X45" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="Y45" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
@@ -4788,7 +5548,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4797,49 +5557,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="J46" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L46" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="O46" t="s">
-        <v>115</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s"/>
-      <c r="X46" t="s"/>
+      <c r="W46" t="s">
+        <v>407</v>
+      </c>
+      <c r="X46" t="s">
+        <v>408</v>
+      </c>
       <c r="Y46" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47">
@@ -4855,7 +5609,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4864,49 +5618,43 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="J47" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="K47" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="L47" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="O47" t="s">
         <v>62</v>
       </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>4</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
+      <c r="W47" t="s">
+        <v>407</v>
+      </c>
+      <c r="X47" t="s">
+        <v>408</v>
+      </c>
       <c r="Y47" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="48">
@@ -4922,7 +5670,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4931,49 +5679,43 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
+        <v>417</v>
+      </c>
+      <c r="J48" t="s">
+        <v>418</v>
+      </c>
+      <c r="K48" t="s">
+        <v>419</v>
+      </c>
+      <c r="L48" t="s">
+        <v>420</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>421</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
         <v>407</v>
       </c>
-      <c r="J48" t="s">
+      <c r="X48" t="s">
         <v>408</v>
       </c>
-      <c r="K48" t="s">
-        <v>409</v>
-      </c>
-      <c r="L48" t="s">
-        <v>410</v>
-      </c>
-      <c r="M48" t="n">
-        <v>3</v>
-      </c>
-      <c r="N48" t="s">
-        <v>405</v>
-      </c>
-      <c r="O48" t="s">
-        <v>115</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>3</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2</v>
-      </c>
-      <c r="S48" t="n">
-        <v>4</v>
-      </c>
-      <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
-      </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49">
@@ -4989,7 +5731,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4998,22 +5740,22 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="J49" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="K49" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="L49" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="O49" t="s">
         <v>62</v>
@@ -5021,26 +5763,26 @@
       <c r="P49" t="n">
         <v>3</v>
       </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
         <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>407</v>
+      </c>
+      <c r="X49" t="s">
+        <v>408</v>
+      </c>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50">
@@ -5056,7 +5798,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5065,16 +5807,16 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="J50" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="K50" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="L50" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
@@ -5083,31 +5825,25 @@
         <v>421</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>3</v>
-      </c>
-      <c r="S50" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>407</v>
+      </c>
+      <c r="X50" t="s">
+        <v>408</v>
+      </c>
       <c r="Y50" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51">
@@ -5123,7 +5859,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5132,49 +5868,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="J51" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="K51" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L51" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="O51" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>3</v>
-      </c>
-      <c r="R51" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>441</v>
+      </c>
+      <c r="X51" t="s">
+        <v>442</v>
+      </c>
       <c r="Y51" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52">
@@ -5190,7 +5926,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5199,53 +5935,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="J52" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="K52" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="O52" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="P52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2</v>
-      </c>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="X52" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="Y52" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
@@ -5261,7 +5993,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5270,49 +6002,49 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="J53" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="K53" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="M53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="O53" t="s">
-        <v>62</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="n">
-        <v>3</v>
-      </c>
-      <c r="R53" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
       <c r="S53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>456</v>
+      </c>
+      <c r="X53" t="s">
+        <v>457</v>
+      </c>
       <c r="Y53" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
@@ -5328,7 +6060,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5337,53 +6069,47 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="J54" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="X54" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Y54" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55">
@@ -5399,7 +6125,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5408,41 +6134,37 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="J55" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="K55" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="L55" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="O55" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
       </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5450,7 +6172,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56">
@@ -5466,7 +6188,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5475,49 +6197,43 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="J56" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K56" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="L56" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="M56" t="n">
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="O56" t="s">
         <v>62</v>
       </c>
-      <c r="P56" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2</v>
-      </c>
-      <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>5</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>478</v>
+      </c>
+      <c r="X56" t="s">
+        <v>479</v>
+      </c>
       <c r="Y56" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57">
@@ -5533,7 +6249,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5542,49 +6258,39 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="J57" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="K57" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="L57" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="O57" t="s">
-        <v>115</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>4</v>
-      </c>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>3</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58">
@@ -5600,7 +6306,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5609,35 +6315,2553 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="J58" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="K58" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="L58" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>493</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>478</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>495</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>493</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>499</v>
+      </c>
+      <c r="X59" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>507</v>
+      </c>
+      <c r="O60" t="s">
+        <v>508</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>515</v>
+      </c>
+      <c r="O61" t="s">
+        <v>263</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>517</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>518</v>
+      </c>
+      <c r="J62" t="s">
+        <v>519</v>
+      </c>
+      <c r="K62" t="s">
+        <v>520</v>
+      </c>
+      <c r="L62" t="s">
+        <v>521</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>515</v>
+      </c>
+      <c r="O62" t="s">
+        <v>263</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>523</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>524</v>
+      </c>
+      <c r="J63" t="s">
+        <v>525</v>
+      </c>
+      <c r="K63" t="s">
+        <v>526</v>
+      </c>
+      <c r="L63" t="s">
+        <v>527</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>528</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>530</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>531</v>
+      </c>
+      <c r="J64" t="s">
+        <v>532</v>
+      </c>
+      <c r="K64" t="s">
+        <v>533</v>
+      </c>
+      <c r="L64" t="s">
+        <v>534</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>536</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>537</v>
+      </c>
+      <c r="J65" t="s">
+        <v>538</v>
+      </c>
+      <c r="K65" t="s">
+        <v>539</v>
+      </c>
+      <c r="L65" t="s">
+        <v>540</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>541</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>542</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>543</v>
+      </c>
+      <c r="J66" t="s">
+        <v>544</v>
+      </c>
+      <c r="K66" t="s">
+        <v>545</v>
+      </c>
+      <c r="L66" t="s">
+        <v>546</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>547</v>
+      </c>
+      <c r="O66" t="s">
+        <v>104</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>548</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>549</v>
+      </c>
+      <c r="J67" t="s">
+        <v>550</v>
+      </c>
+      <c r="K67" t="s">
+        <v>551</v>
+      </c>
+      <c r="L67" t="s">
+        <v>552</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>541</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>553</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>554</v>
+      </c>
+      <c r="J68" t="s">
+        <v>555</v>
+      </c>
+      <c r="K68" t="s">
+        <v>556</v>
+      </c>
+      <c r="L68" t="s">
+        <v>557</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>558</v>
+      </c>
+      <c r="O68" t="s">
+        <v>62</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>559</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>560</v>
+      </c>
+      <c r="J69" t="s">
+        <v>561</v>
+      </c>
+      <c r="K69" t="s">
+        <v>562</v>
+      </c>
+      <c r="L69" t="s">
+        <v>563</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>564</v>
+      </c>
+      <c r="O69" t="s">
+        <v>263</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>566</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>567</v>
+      </c>
+      <c r="J70" t="s">
+        <v>568</v>
+      </c>
+      <c r="K70" t="s">
+        <v>569</v>
+      </c>
+      <c r="L70" t="s">
+        <v>570</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>564</v>
+      </c>
+      <c r="O70" t="s">
+        <v>263</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>572</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>573</v>
+      </c>
+      <c r="J71" t="s">
+        <v>574</v>
+      </c>
+      <c r="K71" t="s">
+        <v>575</v>
+      </c>
+      <c r="L71" t="s">
+        <v>576</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>577</v>
+      </c>
+      <c r="O71" t="s">
+        <v>62</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>578</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>579</v>
+      </c>
+      <c r="J72" t="s">
+        <v>580</v>
+      </c>
+      <c r="K72" t="s">
+        <v>581</v>
+      </c>
+      <c r="L72" t="s">
+        <v>582</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+      <c r="O72" t="s">
+        <v>62</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>584</v>
+      </c>
+      <c r="J73" t="s">
+        <v>585</v>
+      </c>
+      <c r="K73" t="s">
+        <v>586</v>
+      </c>
+      <c r="L73" t="s">
+        <v>587</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>588</v>
+      </c>
+      <c r="O73" t="s">
+        <v>104</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>589</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>590</v>
+      </c>
+      <c r="J74" t="s">
+        <v>591</v>
+      </c>
+      <c r="K74" t="s">
+        <v>592</v>
+      </c>
+      <c r="L74" t="s">
+        <v>593</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>594</v>
+      </c>
+      <c r="O74" t="s">
+        <v>62</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+      <c r="J75" t="s">
+        <v>598</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+      <c r="L75" t="s">
+        <v>600</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>601</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>602</v>
+      </c>
+      <c r="X75" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>605</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>606</v>
+      </c>
+      <c r="J76" t="s">
+        <v>607</v>
+      </c>
+      <c r="K76" t="s">
+        <v>608</v>
+      </c>
+      <c r="L76" t="s">
+        <v>609</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>610</v>
+      </c>
+      <c r="O76" t="s">
+        <v>104</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>611</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>612</v>
+      </c>
+      <c r="J77" t="s">
+        <v>613</v>
+      </c>
+      <c r="K77" t="s">
+        <v>614</v>
+      </c>
+      <c r="L77" t="s">
+        <v>615</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>610</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>617</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>618</v>
+      </c>
+      <c r="J78" t="s">
+        <v>619</v>
+      </c>
+      <c r="K78" t="s">
+        <v>620</v>
+      </c>
+      <c r="L78" t="s">
+        <v>621</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>622</v>
+      </c>
+      <c r="O78" t="s">
+        <v>263</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>623</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" t="s">
+        <v>625</v>
+      </c>
+      <c r="K79" t="s">
+        <v>626</v>
+      </c>
+      <c r="L79" t="s">
+        <v>627</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>628</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>629</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>630</v>
+      </c>
+      <c r="J80" t="s">
+        <v>631</v>
+      </c>
+      <c r="K80" t="s">
+        <v>632</v>
+      </c>
+      <c r="L80" t="s">
+        <v>633</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>628</v>
+      </c>
+      <c r="O80" t="s">
+        <v>104</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>634</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>635</v>
+      </c>
+      <c r="J81" t="s">
+        <v>636</v>
+      </c>
+      <c r="K81" t="s">
+        <v>632</v>
+      </c>
+      <c r="L81" t="s">
+        <v>637</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>638</v>
+      </c>
+      <c r="O81" t="s">
+        <v>62</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>639</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>640</v>
+      </c>
+      <c r="J82" t="s">
+        <v>641</v>
+      </c>
+      <c r="K82" t="s">
+        <v>642</v>
+      </c>
+      <c r="L82" t="s">
+        <v>643</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>628</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>3</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>645</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>646</v>
+      </c>
+      <c r="J83" t="s">
+        <v>647</v>
+      </c>
+      <c r="K83" t="s">
+        <v>648</v>
+      </c>
+      <c r="L83" t="s">
+        <v>649</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>650</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>651</v>
+      </c>
+      <c r="J84" t="s">
+        <v>652</v>
+      </c>
+      <c r="K84" t="s">
+        <v>653</v>
+      </c>
+      <c r="L84" t="s">
+        <v>654</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>655</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>657</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>658</v>
+      </c>
+      <c r="J85" t="s">
+        <v>659</v>
+      </c>
+      <c r="K85" t="s">
+        <v>660</v>
+      </c>
+      <c r="L85" t="s">
+        <v>661</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="s">
+        <v>662</v>
+      </c>
+      <c r="O85" t="s">
+        <v>62</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>663</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>664</v>
+      </c>
+      <c r="J86" t="s">
+        <v>665</v>
+      </c>
+      <c r="K86" t="s">
+        <v>666</v>
+      </c>
+      <c r="L86" t="s">
+        <v>667</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>668</v>
+      </c>
+      <c r="O86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>669</v>
+      </c>
+      <c r="X86" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>672</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>673</v>
+      </c>
+      <c r="J87" t="s">
+        <v>674</v>
+      </c>
+      <c r="K87" t="s">
+        <v>660</v>
+      </c>
+      <c r="L87" t="s">
+        <v>675</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>676</v>
+      </c>
+      <c r="O87" t="s">
+        <v>62</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>677</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>678</v>
+      </c>
+      <c r="J88" t="s">
+        <v>679</v>
+      </c>
+      <c r="K88" t="s">
+        <v>680</v>
+      </c>
+      <c r="L88" t="s">
+        <v>681</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>682</v>
+      </c>
+      <c r="O88" t="s">
+        <v>62</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>684</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>685</v>
+      </c>
+      <c r="J89" t="s">
+        <v>686</v>
+      </c>
+      <c r="K89" t="s">
+        <v>687</v>
+      </c>
+      <c r="L89" t="s">
+        <v>688</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>682</v>
+      </c>
+      <c r="O89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>689</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>690</v>
+      </c>
+      <c r="J90" t="s">
+        <v>691</v>
+      </c>
+      <c r="K90" t="s">
+        <v>692</v>
+      </c>
+      <c r="L90" t="s">
+        <v>693</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>694</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>695</v>
+      </c>
+      <c r="X90" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>698</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>699</v>
+      </c>
+      <c r="J91" t="s">
+        <v>700</v>
+      </c>
+      <c r="K91" t="s">
+        <v>701</v>
+      </c>
+      <c r="L91" t="s">
+        <v>702</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>703</v>
+      </c>
+      <c r="O91" t="s">
+        <v>104</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>704</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>705</v>
+      </c>
+      <c r="J92" t="s">
+        <v>706</v>
+      </c>
+      <c r="K92" t="s">
+        <v>707</v>
+      </c>
+      <c r="L92" t="s">
+        <v>708</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>709</v>
+      </c>
+      <c r="O92" t="s">
+        <v>62</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>2</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>710</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>711</v>
+      </c>
+      <c r="J93" t="s">
+        <v>712</v>
+      </c>
+      <c r="K93" t="s">
+        <v>713</v>
+      </c>
+      <c r="L93" t="s">
+        <v>714</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>715</v>
+      </c>
+      <c r="O93" t="s">
+        <v>62</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>717</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>718</v>
+      </c>
+      <c r="J94" t="s">
+        <v>719</v>
+      </c>
+      <c r="K94" t="s">
+        <v>720</v>
+      </c>
+      <c r="L94" t="s">
+        <v>721</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>722</v>
+      </c>
+      <c r="O94" t="s">
+        <v>62</v>
+      </c>
+      <c r="P94" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>724</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>725</v>
+      </c>
+      <c r="J95" t="s">
+        <v>726</v>
+      </c>
+      <c r="K95" t="s">
+        <v>727</v>
+      </c>
+      <c r="L95" t="s">
+        <v>728</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>729</v>
+      </c>
+      <c r="O95" t="s">
+        <v>104</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>42631</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>731</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>732</v>
+      </c>
+      <c r="J96" t="s">
+        <v>733</v>
+      </c>
+      <c r="K96" t="s">
+        <v>734</v>
+      </c>
+      <c r="L96" t="s">
+        <v>735</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
